--- a/backend/Considered_Stocks.xlsx
+++ b/backend/Considered_Stocks.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\StockAnalytics\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1D250-F7B9-4D61-BEF5-7D6BA8D69204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Stocks"/>
+    <sheet name="Stocks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1438">
   <si>
     <t>Information Technology</t>
   </si>
@@ -3815,14 +3821,526 @@
   </si>
   <si>
     <t>YUM</t>
+  </si>
+  <si>
+    <t>ARMK</t>
+  </si>
+  <si>
+    <t>ATI</t>
+  </si>
+  <si>
+    <t>ATKR</t>
+  </si>
+  <si>
+    <t>AVAV</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>AYI</t>
+  </si>
+  <si>
+    <t>AZEK</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>BECN</t>
+  </si>
+  <si>
+    <t>BLD</t>
+  </si>
+  <si>
+    <t>BLDE</t>
+  </si>
+  <si>
+    <t>BLDR</t>
+  </si>
+  <si>
+    <t>BWXT</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CARR</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CHRW</t>
+  </si>
+  <si>
+    <t>CLH</t>
+  </si>
+  <si>
+    <t>CMI</t>
+  </si>
+  <si>
+    <t>CNHI</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>CNM</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>CWST</t>
+  </si>
+  <si>
+    <t>CXT</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DCI</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DLB</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>EME</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>EXPD</t>
+  </si>
+  <si>
+    <t>EXPO</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>FBIN</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>FLS</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GFL</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>GNRC</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>GTES</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>GXO</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>HTZ</t>
+  </si>
+  <si>
+    <t>HUBB</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>HXL</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>ITT</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>JBHT</t>
+  </si>
+  <si>
+    <t>JBLU</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>JOBY</t>
+  </si>
+  <si>
+    <t>KBR</t>
+  </si>
+  <si>
+    <t>KEX</t>
+  </si>
+  <si>
+    <t>KNX</t>
+  </si>
+  <si>
+    <t>KTOS</t>
+  </si>
+  <si>
+    <t>LECO</t>
+  </si>
+  <si>
+    <t>LGIH</t>
+  </si>
+  <si>
+    <t>LHX</t>
+  </si>
+  <si>
+    <t>LII</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>LPX</t>
+  </si>
+  <si>
+    <t>LSTR</t>
+  </si>
+  <si>
+    <t>LUV</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MDU</t>
+  </si>
+  <si>
+    <t>MIDD</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MMS</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>MTZ</t>
+  </si>
+  <si>
+    <t>NDSN</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>NSP</t>
+  </si>
+  <si>
+    <t>NVEE</t>
+  </si>
+  <si>
+    <t>NVT</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>ODFL</t>
+  </si>
+  <si>
+    <t>OSK</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>POOL</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>RELX</t>
+  </si>
+  <si>
+    <t>RHI</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>RRX</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>RYAAY</t>
+  </si>
+  <si>
+    <t>SAIA</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>SNCY</t>
+  </si>
+  <si>
+    <t>SNDR</t>
+  </si>
+  <si>
+    <t>SPCE</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>SRCL</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>SWK</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TFII</t>
+  </si>
+  <si>
+    <t>TKR</t>
+  </si>
+  <si>
+    <t>TNET</t>
+  </si>
+  <si>
+    <t>TREX</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>TRTN</t>
+  </si>
+  <si>
+    <t>TRU</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>TTEK</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>UHAL</t>
+  </si>
+  <si>
+    <t>ULCC</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>VRT</t>
+  </si>
+  <si>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>WCC</t>
+  </si>
+  <si>
+    <t>WCN</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>WSO</t>
+  </si>
+  <si>
+    <t>WWD</t>
+  </si>
+  <si>
+    <t>XPO</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>ZTO</t>
+  </si>
+  <si>
+    <t>ZWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3838,7 +4356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF232a31"/>
+      <color rgb="FF232A31"/>
       <name val="&quot;Yahoo Sans Finance&quot;"/>
       <family val="2"/>
     </font>
@@ -3846,6 +4364,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3858,16 +4382,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9ead3"/>
+        <fgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3877,16 +4401,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3897,48 +4421,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3949,10 +4488,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -3990,71 +4529,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4082,7 +4621,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -4105,11 +4644,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -4118,13 +4657,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4134,7 +4673,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4143,7 +4682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4152,7 +4691,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4160,10 +4699,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -4228,45 +4767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Z259"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4834,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -4335,7 +4853,7 @@
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -4362,11 +4880,8 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -4385,7 +4900,7 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -4414,9 +4929,8 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -4435,7 +4949,7 @@
       <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -4464,9 +4978,8 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -4485,7 +4998,7 @@
       <c r="F5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -4514,9 +5027,8 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -4535,7 +5047,7 @@
       <c r="F6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -4564,9 +5076,8 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +5096,7 @@
       <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -4614,9 +5125,8 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
@@ -4635,7 +5145,7 @@
       <c r="F8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -4664,9 +5174,8 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
@@ -4685,7 +5194,7 @@
       <c r="F9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -4714,9 +5223,8 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
@@ -4735,7 +5243,7 @@
       <c r="F10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -4764,9 +5272,8 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
@@ -4785,7 +5292,7 @@
       <c r="F11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -4814,9 +5321,8 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>121</v>
       </c>
@@ -4835,7 +5341,7 @@
       <c r="F12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -4864,9 +5370,8 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>132</v>
       </c>
@@ -4885,7 +5390,7 @@
       <c r="F13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -4914,9 +5419,8 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>143</v>
       </c>
@@ -4935,7 +5439,7 @@
       <c r="F14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>149</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -4964,9 +5468,8 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>154</v>
       </c>
@@ -4985,7 +5488,7 @@
       <c r="F15" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>160</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -5014,9 +5517,8 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    </row>
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>165</v>
       </c>
@@ -5035,7 +5537,7 @@
       <c r="F16" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>171</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -5064,9 +5566,8 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    </row>
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>176</v>
       </c>
@@ -5085,7 +5586,7 @@
       <c r="F17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -5114,9 +5615,8 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>187</v>
       </c>
@@ -5135,8 +5635,8 @@
       <c r="F18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>193</v>
+      <c r="G18" s="8" t="s">
+        <v>1267</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>194</v>
@@ -5164,9 +5664,8 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    </row>
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>198</v>
       </c>
@@ -5185,8 +5684,8 @@
       <c r="F19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>193</v>
+      <c r="G19" s="8" t="s">
+        <v>1268</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>204</v>
@@ -5214,9 +5713,8 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    </row>
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -5235,8 +5733,8 @@
       <c r="F20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>193</v>
+      <c r="G20" s="8" t="s">
+        <v>1269</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>214</v>
@@ -5264,9 +5762,8 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    </row>
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>218</v>
       </c>
@@ -5285,8 +5782,8 @@
       <c r="F21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>193</v>
+      <c r="G21" s="8" t="s">
+        <v>1270</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>224</v>
@@ -5314,9 +5811,8 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    </row>
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>228</v>
       </c>
@@ -5335,8 +5831,8 @@
       <c r="F22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>193</v>
+      <c r="G22" s="8" t="s">
+        <v>1271</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>234</v>
@@ -5364,9 +5860,8 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    </row>
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>238</v>
       </c>
@@ -5385,8 +5880,8 @@
       <c r="F23" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>193</v>
+      <c r="G23" s="8" t="s">
+        <v>1272</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>244</v>
@@ -5414,9 +5909,8 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    </row>
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>248</v>
       </c>
@@ -5435,8 +5929,8 @@
       <c r="F24" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>193</v>
+      <c r="G24" s="8" t="s">
+        <v>1273</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>254</v>
@@ -5464,9 +5958,8 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    </row>
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>258</v>
       </c>
@@ -5485,8 +5978,8 @@
       <c r="F25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>193</v>
+      <c r="G25" s="8" t="s">
+        <v>1274</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>264</v>
@@ -5514,9 +6007,8 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    </row>
+    <row r="26" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>268</v>
       </c>
@@ -5535,8 +6027,8 @@
       <c r="F26" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>193</v>
+      <c r="G26" s="8" t="s">
+        <v>1275</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>274</v>
@@ -5564,9 +6056,8 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    </row>
+    <row r="27" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>278</v>
       </c>
@@ -5585,8 +6076,8 @@
       <c r="F27" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>193</v>
+      <c r="G27" s="8" t="s">
+        <v>1276</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>284</v>
@@ -5614,9 +6105,8 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    </row>
+    <row r="28" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>288</v>
       </c>
@@ -5635,8 +6125,8 @@
       <c r="F28" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>193</v>
+      <c r="G28" s="8" t="s">
+        <v>1277</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>294</v>
@@ -5664,9 +6154,8 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    </row>
+    <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>298</v>
       </c>
@@ -5685,8 +6174,8 @@
       <c r="F29" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>193</v>
+      <c r="G29" s="8" t="s">
+        <v>1278</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>304</v>
@@ -5714,9 +6203,8 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    </row>
+    <row r="30" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>308</v>
       </c>
@@ -5735,8 +6223,8 @@
       <c r="F30" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>193</v>
+      <c r="G30" s="8" t="s">
+        <v>1279</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>314</v>
@@ -5764,9 +6252,8 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    </row>
+    <row r="31" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>318</v>
       </c>
@@ -5785,8 +6272,8 @@
       <c r="F31" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>193</v>
+      <c r="G31" s="8" t="s">
+        <v>1280</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>324</v>
@@ -5814,9 +6301,8 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    </row>
+    <row r="32" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>328</v>
       </c>
@@ -5835,8 +6321,8 @@
       <c r="F32" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>193</v>
+      <c r="G32" s="8" t="s">
+        <v>1281</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>334</v>
@@ -5864,9 +6350,8 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    </row>
+    <row r="33" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>338</v>
       </c>
@@ -5885,8 +6370,8 @@
       <c r="F33" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>193</v>
+      <c r="G33" s="8" t="s">
+        <v>1282</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>344</v>
@@ -5914,9 +6399,8 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    </row>
+    <row r="34" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
         <v>348</v>
       </c>
@@ -5935,8 +6419,8 @@
       <c r="F34" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>193</v>
+      <c r="G34" s="8" t="s">
+        <v>1283</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>354</v>
@@ -5964,9 +6448,8 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    </row>
+    <row r="35" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>358</v>
       </c>
@@ -5985,8 +6468,8 @@
       <c r="F35" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>193</v>
+      <c r="G35" s="8" t="s">
+        <v>1284</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>364</v>
@@ -6014,9 +6497,8 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    </row>
+    <row r="36" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
         <v>368</v>
       </c>
@@ -6035,8 +6517,8 @@
       <c r="F36" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>193</v>
+      <c r="G36" s="8" t="s">
+        <v>1285</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>374</v>
@@ -6064,9 +6546,8 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    </row>
+    <row r="37" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>378</v>
       </c>
@@ -6085,8 +6566,8 @@
       <c r="F37" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>193</v>
+      <c r="G37" s="8" t="s">
+        <v>1286</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>384</v>
@@ -6114,9 +6595,8 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    </row>
+    <row r="38" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
         <v>388</v>
       </c>
@@ -6135,8 +6615,8 @@
       <c r="F38" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>193</v>
+      <c r="G38" s="8" t="s">
+        <v>1287</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>394</v>
@@ -6164,9 +6644,8 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    </row>
+    <row r="39" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>398</v>
       </c>
@@ -6185,8 +6664,8 @@
       <c r="F39" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>193</v>
+      <c r="G39" s="8" t="s">
+        <v>1288</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>404</v>
@@ -6214,9 +6693,8 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    </row>
+    <row r="40" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>408</v>
       </c>
@@ -6235,8 +6713,8 @@
       <c r="F40" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>193</v>
+      <c r="G40" s="8" t="s">
+        <v>1289</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>414</v>
@@ -6264,9 +6742,8 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
+    </row>
+    <row r="41" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>418</v>
       </c>
@@ -6285,8 +6762,8 @@
       <c r="F41" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>193</v>
+      <c r="G41" s="8" t="s">
+        <v>1290</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>424</v>
@@ -6314,9 +6791,8 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="21">
+    </row>
+    <row r="42" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
         <v>428</v>
       </c>
@@ -6335,8 +6811,8 @@
       <c r="F42" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>193</v>
+      <c r="G42" s="8" t="s">
+        <v>1291</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>434</v>
@@ -6364,9 +6840,8 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21">
+    </row>
+    <row r="43" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
         <v>438</v>
       </c>
@@ -6385,8 +6860,8 @@
       <c r="F43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>193</v>
+      <c r="G43" s="8" t="s">
+        <v>1292</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>444</v>
@@ -6414,9 +6889,8 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21">
+    </row>
+    <row r="44" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
         <v>448</v>
       </c>
@@ -6435,8 +6909,8 @@
       <c r="F44" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>193</v>
+      <c r="G44" s="8" t="s">
+        <v>1293</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>454</v>
@@ -6464,9 +6938,8 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
+    </row>
+    <row r="45" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>458</v>
       </c>
@@ -6485,8 +6958,8 @@
       <c r="F45" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>193</v>
+      <c r="G45" s="8" t="s">
+        <v>1294</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>464</v>
@@ -6514,9 +6987,8 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
+    </row>
+    <row r="46" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
         <v>468</v>
       </c>
@@ -6535,8 +7007,8 @@
       <c r="F46" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>193</v>
+      <c r="G46" s="8" t="s">
+        <v>1295</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>474</v>
@@ -6564,9 +7036,8 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21">
+    </row>
+    <row r="47" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>478</v>
       </c>
@@ -6585,8 +7056,8 @@
       <c r="F47" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>193</v>
+      <c r="G47" s="8" t="s">
+        <v>1296</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>484</v>
@@ -6614,9 +7085,8 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
+    </row>
+    <row r="48" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>488</v>
       </c>
@@ -6635,8 +7105,8 @@
       <c r="F48" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>193</v>
+      <c r="G48" s="8" t="s">
+        <v>1297</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>494</v>
@@ -6664,9 +7134,8 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21">
+    </row>
+    <row r="49" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
         <v>498</v>
       </c>
@@ -6685,8 +7154,8 @@
       <c r="F49" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>193</v>
+      <c r="G49" s="8" t="s">
+        <v>1298</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>504</v>
@@ -6714,9 +7183,8 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21">
+    </row>
+    <row r="50" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>508</v>
       </c>
@@ -6735,8 +7203,8 @@
       <c r="F50" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>193</v>
+      <c r="G50" s="8" t="s">
+        <v>1299</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>514</v>
@@ -6764,9 +7232,8 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="21">
+    </row>
+    <row r="51" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A51" s="3" t="s">
         <v>518</v>
       </c>
@@ -6785,8 +7252,8 @@
       <c r="F51" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>193</v>
+      <c r="G51" s="8" t="s">
+        <v>1300</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>524</v>
@@ -6814,9 +7281,8 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="21">
+    </row>
+    <row r="52" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A52" s="3" t="s">
         <v>528</v>
       </c>
@@ -6835,8 +7301,8 @@
       <c r="F52" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>193</v>
+      <c r="G52" s="8" t="s">
+        <v>1301</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>534</v>
@@ -6864,9 +7330,8 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="21">
+    </row>
+    <row r="53" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A53" s="3" t="s">
         <v>538</v>
       </c>
@@ -6885,8 +7350,8 @@
       <c r="F53" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>193</v>
+      <c r="G53" s="8" t="s">
+        <v>1302</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>544</v>
@@ -6914,9 +7379,8 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="21">
+    </row>
+    <row r="54" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A54" s="3" t="s">
         <v>548</v>
       </c>
@@ -6935,8 +7399,8 @@
       <c r="F54" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>193</v>
+      <c r="G54" s="8" t="s">
+        <v>1303</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>554</v>
@@ -6964,9 +7428,8 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
-      <c r="Z54" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    </row>
+    <row r="55" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>558</v>
       </c>
@@ -6985,8 +7448,8 @@
       <c r="F55" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>193</v>
+      <c r="G55" s="8" t="s">
+        <v>1304</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>564</v>
@@ -7014,9 +7477,8 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    </row>
+    <row r="56" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
         <v>568</v>
       </c>
@@ -7035,8 +7497,8 @@
       <c r="F56" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>193</v>
+      <c r="G56" s="8" t="s">
+        <v>1305</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>574</v>
@@ -7064,9 +7526,8 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    </row>
+    <row r="57" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
         <v>578</v>
       </c>
@@ -7085,8 +7546,8 @@
       <c r="F57" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>193</v>
+      <c r="G57" s="8" t="s">
+        <v>1306</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>584</v>
@@ -7114,9 +7575,8 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    </row>
+    <row r="58" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
         <v>588</v>
       </c>
@@ -7135,8 +7595,8 @@
       <c r="F58" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>193</v>
+      <c r="G58" s="8" t="s">
+        <v>1307</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>594</v>
@@ -7164,9 +7624,8 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    </row>
+    <row r="59" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
         <v>598</v>
       </c>
@@ -7185,8 +7644,8 @@
       <c r="F59" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>193</v>
+      <c r="G59" s="8" t="s">
+        <v>1308</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>604</v>
@@ -7214,9 +7673,8 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="21">
+    </row>
+    <row r="60" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
         <v>608</v>
       </c>
@@ -7235,8 +7693,8 @@
       <c r="F60" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>193</v>
+      <c r="G60" s="8" t="s">
+        <v>1309</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>614</v>
@@ -7264,9 +7722,8 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="21">
+    </row>
+    <row r="61" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A61" s="3" t="s">
         <v>618</v>
       </c>
@@ -7285,8 +7742,8 @@
       <c r="F61" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>193</v>
+      <c r="G61" s="8" t="s">
+        <v>1310</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>624</v>
@@ -7314,9 +7771,8 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="21">
+    </row>
+    <row r="62" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>628</v>
       </c>
@@ -7335,8 +7791,8 @@
       <c r="F62" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>193</v>
+      <c r="G62" s="8" t="s">
+        <v>1311</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>634</v>
@@ -7364,9 +7820,8 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="21">
+    </row>
+    <row r="63" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A63" s="3" t="s">
         <v>638</v>
       </c>
@@ -7385,8 +7840,8 @@
       <c r="F63" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>193</v>
+      <c r="G63" s="8" t="s">
+        <v>1312</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>644</v>
@@ -7414,9 +7869,8 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
-      <c r="Z63" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="21">
+    </row>
+    <row r="64" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A64" s="3" t="s">
         <v>648</v>
       </c>
@@ -7435,8 +7889,8 @@
       <c r="F64" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>193</v>
+      <c r="G64" s="8" t="s">
+        <v>1313</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>654</v>
@@ -7464,9 +7918,8 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="21">
+    </row>
+    <row r="65" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A65" s="3" t="s">
         <v>658</v>
       </c>
@@ -7485,8 +7938,8 @@
       <c r="F65" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>193</v>
+      <c r="G65" s="8" t="s">
+        <v>1314</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>664</v>
@@ -7514,9 +7967,8 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="21">
+    </row>
+    <row r="66" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A66" s="3" t="s">
         <v>668</v>
       </c>
@@ -7535,8 +7987,8 @@
       <c r="F66" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>193</v>
+      <c r="G66" s="8" t="s">
+        <v>1315</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>674</v>
@@ -7564,9 +8016,8 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="21">
+    </row>
+    <row r="67" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>678</v>
       </c>
@@ -7585,8 +8036,8 @@
       <c r="F67" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>193</v>
+      <c r="G67" s="8" t="s">
+        <v>1316</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>684</v>
@@ -7614,9 +8065,8 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="21">
+    </row>
+    <row r="68" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A68" s="3" t="s">
         <v>688</v>
       </c>
@@ -7635,8 +8085,8 @@
       <c r="F68" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>193</v>
+      <c r="G68" s="8" t="s">
+        <v>1317</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>694</v>
@@ -7664,9 +8114,8 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="21">
+    </row>
+    <row r="69" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A69" s="3" t="s">
         <v>698</v>
       </c>
@@ -7685,8 +8134,8 @@
       <c r="F69" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>193</v>
+      <c r="G69" s="8" t="s">
+        <v>1318</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>704</v>
@@ -7714,9 +8163,8 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="21">
+    </row>
+    <row r="70" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A70" s="3" t="s">
         <v>708</v>
       </c>
@@ -7735,8 +8183,8 @@
       <c r="F70" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>193</v>
+      <c r="G70" s="8" t="s">
+        <v>1319</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>714</v>
@@ -7764,9 +8212,8 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="21">
+    </row>
+    <row r="71" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A71" s="3" t="s">
         <v>718</v>
       </c>
@@ -7785,8 +8232,8 @@
       <c r="F71" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>193</v>
+      <c r="G71" s="8" t="s">
+        <v>1320</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>724</v>
@@ -7814,9 +8261,8 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="21">
+    </row>
+    <row r="72" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A72" s="3" t="s">
         <v>728</v>
       </c>
@@ -7835,8 +8281,8 @@
       <c r="F72" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>193</v>
+      <c r="G72" s="8" t="s">
+        <v>1321</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>734</v>
@@ -7864,9 +8310,8 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="21">
+    </row>
+    <row r="73" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A73" s="3" t="s">
         <v>738</v>
       </c>
@@ -7885,8 +8330,8 @@
       <c r="F73" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>193</v>
+      <c r="G73" s="8" t="s">
+        <v>1322</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>744</v>
@@ -7914,9 +8359,8 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="21">
+    </row>
+    <row r="74" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A74" s="3" t="s">
         <v>748</v>
       </c>
@@ -7935,8 +8379,8 @@
       <c r="F74" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>193</v>
+      <c r="G74" s="8" t="s">
+        <v>1323</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>754</v>
@@ -7962,9 +8406,8 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="21">
+    </row>
+    <row r="75" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A75" s="3" t="s">
         <v>757</v>
       </c>
@@ -7983,8 +8426,8 @@
       <c r="F75" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>193</v>
+      <c r="G75" s="8" t="s">
+        <v>1324</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>763</v>
@@ -8010,9 +8453,8 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="21">
+    </row>
+    <row r="76" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A76" s="3" t="s">
         <v>766</v>
       </c>
@@ -8031,8 +8473,8 @@
       <c r="F76" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>193</v>
+      <c r="G76" s="8" t="s">
+        <v>1325</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>772</v>
@@ -8058,9 +8500,8 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
-      <c r="Z76" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="21">
+    </row>
+    <row r="77" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A77" s="3" t="s">
         <v>775</v>
       </c>
@@ -8079,8 +8520,8 @@
       <c r="F77" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>193</v>
+      <c r="G77" s="8" t="s">
+        <v>1326</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>781</v>
@@ -8106,9 +8547,8 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
-      <c r="Z77" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="21">
+    </row>
+    <row r="78" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A78" s="3" t="s">
         <v>784</v>
       </c>
@@ -8127,8 +8567,8 @@
       <c r="F78" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>193</v>
+      <c r="G78" s="8" t="s">
+        <v>1327</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>790</v>
@@ -8154,9 +8594,8 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
-      <c r="Z78" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="21">
+    </row>
+    <row r="79" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A79" s="3" t="s">
         <v>793</v>
       </c>
@@ -8175,8 +8614,8 @@
       <c r="F79" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>193</v>
+      <c r="G79" s="8" t="s">
+        <v>1328</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>799</v>
@@ -8184,7 +8623,6 @@
       <c r="I79" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="J79" s="5"/>
       <c r="K79" s="3" t="s">
         <v>801</v>
       </c>
@@ -8202,9 +8640,8 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
-      <c r="Z79" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="21">
+    </row>
+    <row r="80" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A80" s="3" t="s">
         <v>802</v>
       </c>
@@ -8223,8 +8660,8 @@
       <c r="F80" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>193</v>
+      <c r="G80" s="8" t="s">
+        <v>1329</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>808</v>
@@ -8232,7 +8669,6 @@
       <c r="I80" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="J80" s="5"/>
       <c r="K80" s="3" t="s">
         <v>810</v>
       </c>
@@ -8250,9 +8686,8 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="21">
+    </row>
+    <row r="81" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A81" s="3" t="s">
         <v>811</v>
       </c>
@@ -8271,8 +8706,8 @@
       <c r="F81" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>193</v>
+      <c r="G81" s="8" t="s">
+        <v>1330</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>817</v>
@@ -8298,9 +8733,8 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
-      <c r="Z81" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="21">
+    </row>
+    <row r="82" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>820</v>
       </c>
@@ -8319,8 +8753,8 @@
       <c r="F82" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>193</v>
+      <c r="G82" s="8" t="s">
+        <v>1331</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>826</v>
@@ -8346,9 +8780,8 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
-      <c r="Z82" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21">
+    </row>
+    <row r="83" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>829</v>
       </c>
@@ -8367,8 +8800,8 @@
       <c r="F83" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>193</v>
+      <c r="G83" s="8" t="s">
+        <v>1332</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>835</v>
@@ -8394,9 +8827,8 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
-      <c r="Z83" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="21">
+    </row>
+    <row r="84" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A84" s="3" t="s">
         <v>838</v>
       </c>
@@ -8415,8 +8847,8 @@
       <c r="F84" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>193</v>
+      <c r="G84" s="8" t="s">
+        <v>1333</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>844</v>
@@ -8442,9 +8874,8 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
-      <c r="Z84" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="21">
+    </row>
+    <row r="85" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>847</v>
       </c>
@@ -8463,8 +8894,8 @@
       <c r="F85" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>193</v>
+      <c r="G85" s="8" t="s">
+        <v>1334</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>853</v>
@@ -8490,9 +8921,8 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
-      <c r="Z85" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="21">
+    </row>
+    <row r="86" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A86" s="3" t="s">
         <v>856</v>
       </c>
@@ -8511,8 +8941,8 @@
       <c r="F86" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>193</v>
+      <c r="G86" s="8" t="s">
+        <v>1335</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>862</v>
@@ -8538,9 +8968,8 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="21">
+    </row>
+    <row r="87" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
         <v>865</v>
       </c>
@@ -8559,8 +8988,8 @@
       <c r="F87" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>193</v>
+      <c r="G87" s="8" t="s">
+        <v>1336</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>871</v>
@@ -8586,9 +9015,8 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
-      <c r="Z87" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="21">
+    </row>
+    <row r="88" spans="1:25" ht="21" customHeight="1" thickBot="1">
       <c r="A88" s="2" t="s">
         <v>874</v>
       </c>
@@ -8607,8 +9035,8 @@
       <c r="F88" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>193</v>
+      <c r="G88" s="8" t="s">
+        <v>1337</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>880</v>
@@ -8634,9 +9062,8 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
-      <c r="Z88" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    </row>
+    <row r="89" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A89" s="2" t="s">
         <v>883</v>
       </c>
@@ -8655,8 +9082,8 @@
       <c r="F89" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>193</v>
+      <c r="G89" s="8" t="s">
+        <v>1338</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>889</v>
@@ -8682,13 +9109,11 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    </row>
+    <row r="90" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A90" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="B90" s="5"/>
       <c r="C90" s="3" t="s">
         <v>893</v>
       </c>
@@ -8701,8 +9126,8 @@
       <c r="F90" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>193</v>
+      <c r="G90" s="8" t="s">
+        <v>1339</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>897</v>
@@ -8728,9 +9153,8 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
-      <c r="Z90" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    </row>
+    <row r="91" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>900</v>
       </c>
@@ -8747,8 +9171,8 @@
       <c r="F91" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>193</v>
+      <c r="G91" s="8" t="s">
+        <v>1340</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>905</v>
@@ -8774,9 +9198,8 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
-      <c r="Z91" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    </row>
+    <row r="92" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A92" s="3" t="s">
         <v>908</v>
       </c>
@@ -8793,8 +9216,8 @@
       <c r="F92" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>193</v>
+      <c r="G92" s="8" t="s">
+        <v>1341</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>913</v>
@@ -8820,13 +9243,11 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
-      <c r="Z92" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    </row>
+    <row r="93" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A93" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="B93" s="5"/>
       <c r="C93" s="3" t="s">
         <v>917</v>
       </c>
@@ -8839,8 +9260,8 @@
       <c r="F93" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>193</v>
+      <c r="G93" s="8" t="s">
+        <v>1342</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>921</v>
@@ -8866,13 +9287,11 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
-      <c r="Z93" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    </row>
+    <row r="94" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A94" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B94" s="5"/>
       <c r="C94" s="3" t="s">
         <v>925</v>
       </c>
@@ -8885,8 +9304,8 @@
       <c r="F94" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="G94" s="6" t="s">
-        <v>193</v>
+      <c r="G94" s="8" t="s">
+        <v>1343</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>929</v>
@@ -8912,13 +9331,11 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
-      <c r="Z94" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    </row>
+    <row r="95" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A95" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B95" s="5"/>
       <c r="C95" s="3" t="s">
         <v>933</v>
       </c>
@@ -8931,8 +9348,8 @@
       <c r="F95" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>193</v>
+      <c r="G95" s="8" t="s">
+        <v>1344</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>937</v>
@@ -8958,13 +9375,11 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
-      <c r="Z95" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    </row>
+    <row r="96" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B96" s="5"/>
       <c r="C96" s="3" t="s">
         <v>941</v>
       </c>
@@ -8977,8 +9392,8 @@
       <c r="F96" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>193</v>
+      <c r="G96" s="8" t="s">
+        <v>1345</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>945</v>
@@ -9004,13 +9419,11 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
-      <c r="Z96" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    </row>
+    <row r="97" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="B97" s="5"/>
       <c r="C97" s="3" t="s">
         <v>949</v>
       </c>
@@ -9023,8 +9436,8 @@
       <c r="F97" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>193</v>
+      <c r="G97" s="8" t="s">
+        <v>1346</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>953</v>
@@ -9050,13 +9463,11 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
-      <c r="Z97" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    </row>
+    <row r="98" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="B98" s="5"/>
       <c r="C98" s="3" t="s">
         <v>957</v>
       </c>
@@ -9069,8 +9480,8 @@
       <c r="F98" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>193</v>
+      <c r="G98" s="8" t="s">
+        <v>1347</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>961</v>
@@ -9079,7 +9490,6 @@
         <v>962</v>
       </c>
       <c r="J98" s="3"/>
-      <c r="K98" s="5"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -9094,13 +9504,11 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
-      <c r="Z98" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    </row>
+    <row r="99" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="B99" s="5"/>
       <c r="C99" s="3" t="s">
         <v>964</v>
       </c>
@@ -9113,8 +9521,8 @@
       <c r="F99" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>193</v>
+      <c r="G99" s="8" t="s">
+        <v>1348</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>968</v>
@@ -9123,7 +9531,6 @@
         <v>969</v>
       </c>
       <c r="J99" s="3"/>
-      <c r="K99" s="5"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -9138,13 +9545,11 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
-      <c r="Z99" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    </row>
+    <row r="100" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="B100" s="5"/>
       <c r="C100" s="3" t="s">
         <v>971</v>
       </c>
@@ -9157,8 +9562,8 @@
       <c r="F100" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>193</v>
+      <c r="G100" s="8" t="s">
+        <v>1349</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>975</v>
@@ -9167,7 +9572,6 @@
         <v>976</v>
       </c>
       <c r="J100" s="3"/>
-      <c r="K100" s="5"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -9182,13 +9586,11 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
-      <c r="Z100" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    </row>
+    <row r="101" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B101" s="5"/>
       <c r="C101" s="3" t="s">
         <v>978</v>
       </c>
@@ -9201,8 +9603,8 @@
       <c r="F101" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="G101" s="6" t="s">
-        <v>193</v>
+      <c r="G101" s="8" t="s">
+        <v>1350</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>982</v>
@@ -9211,7 +9613,6 @@
         <v>983</v>
       </c>
       <c r="J101" s="3"/>
-      <c r="K101" s="5"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -9226,32 +9627,27 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
-      <c r="Z101" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    </row>
+    <row r="102" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A102" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B102" s="5"/>
       <c r="C102" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="D102" s="5"/>
       <c r="E102" s="3" t="s">
         <v>986</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="G102" s="6" t="s">
-        <v>193</v>
+      <c r="G102" s="8" t="s">
+        <v>1351</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>988</v>
       </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -9266,32 +9662,27 @@
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
-      <c r="Z102" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    </row>
+    <row r="103" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A103" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B103" s="5"/>
       <c r="C103" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="D103" s="5"/>
       <c r="E103" s="3" t="s">
         <v>991</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>193</v>
+      <c r="G103" s="8" t="s">
+        <v>1352</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>993</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -9306,32 +9697,27 @@
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
-      <c r="Z103" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    </row>
+    <row r="104" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A104" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B104" s="5"/>
       <c r="C104" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="D104" s="5"/>
       <c r="E104" s="3" t="s">
         <v>996</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>193</v>
+      <c r="G104" s="8" t="s">
+        <v>1353</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>998</v>
       </c>
       <c r="I104" s="3"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -9346,32 +9732,27 @@
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
-      <c r="Z104" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    </row>
+    <row r="105" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A105" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B105" s="5"/>
       <c r="C105" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="D105" s="5"/>
       <c r="E105" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>193</v>
+      <c r="G105" s="8" t="s">
+        <v>1354</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -9386,32 +9767,27 @@
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
-      <c r="Z105" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    </row>
+    <row r="106" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A106" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B106" s="5"/>
       <c r="C106" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="D106" s="5"/>
       <c r="E106" s="3" t="s">
         <v>1006</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>193</v>
+      <c r="G106" s="8" t="s">
+        <v>1355</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="I106" s="3"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -9426,32 +9802,26 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
-      <c r="Z106" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    </row>
+    <row r="107" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B107" s="5"/>
       <c r="C107" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D107" s="5"/>
       <c r="E107" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="G107" s="6" t="s">
-        <v>193</v>
+      <c r="G107" s="8" t="s">
+        <v>1356</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -9466,30 +9836,23 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
-      <c r="Z107" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    </row>
+    <row r="108" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B108" s="5"/>
       <c r="C108" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="D108" s="5"/>
       <c r="E108" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="G108" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="G108" s="8" t="s">
+        <v>1357</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -9504,30 +9867,23 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
-      <c r="Z108" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    </row>
+    <row r="109" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B109" s="5"/>
       <c r="C109" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="D109" s="5"/>
       <c r="E109" s="3" t="s">
         <v>1020</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="G109" s="8" t="s">
+        <v>1358</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -9542,30 +9898,23 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
-      <c r="Z109" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    </row>
+    <row r="110" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A110" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B110" s="5"/>
       <c r="C110" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="D110" s="5"/>
       <c r="E110" s="3" t="s">
         <v>1024</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="G110" s="8" t="s">
+        <v>1359</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -9580,30 +9929,24 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    </row>
+    <row r="111" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A111" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B111" s="5"/>
       <c r="C111" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="D111" s="5"/>
       <c r="E111" s="3" t="s">
         <v>1028</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H111" s="5"/>
+      <c r="G111" s="8" t="s">
+        <v>1360</v>
+      </c>
       <c r="I111" s="3"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -9618,30 +9961,23 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
-      <c r="Z111" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    </row>
+    <row r="112" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A112" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B112" s="5"/>
       <c r="C112" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="D112" s="5"/>
       <c r="E112" s="3" t="s">
         <v>1032</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="G112" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="G112" s="8" t="s">
+        <v>1361</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -9656,30 +9992,23 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    </row>
+    <row r="113" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A113" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B113" s="5"/>
       <c r="C113" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="D113" s="5"/>
       <c r="E113" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="G113" s="8" t="s">
+        <v>1362</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -9694,30 +10023,23 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    </row>
+    <row r="114" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A114" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B114" s="5"/>
       <c r="C114" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="D114" s="5"/>
       <c r="E114" s="3" t="s">
         <v>1040</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="G114" s="8" t="s">
+        <v>1363</v>
+      </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -9732,30 +10054,23 @@
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
-      <c r="Z114" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    </row>
+    <row r="115" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A115" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="B115" s="5"/>
       <c r="C115" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="D115" s="5"/>
       <c r="E115" s="3" t="s">
         <v>1044</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+      <c r="G115" s="8" t="s">
+        <v>1364</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -9770,30 +10085,23 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
-      <c r="Z115" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    </row>
+    <row r="116" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="B116" s="5"/>
       <c r="C116" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="D116" s="5"/>
       <c r="E116" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
+      <c r="G116" s="8" t="s">
+        <v>1365</v>
+      </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -9808,583 +10116,356 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
-      <c r="Z116" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    </row>
+    <row r="117" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A117" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B117" s="5"/>
       <c r="C117" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="D117" s="5"/>
       <c r="E117" s="3" t="s">
         <v>1052</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
+      <c r="G117" s="8" t="s">
+        <v>1366</v>
+      </c>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
-      <c r="Z117" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    </row>
+    <row r="118" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A118" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B118" s="5"/>
       <c r="C118" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="D118" s="5"/>
       <c r="E118" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="G118" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
+      <c r="G118" s="8" t="s">
+        <v>1367</v>
+      </c>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
-      <c r="Z118" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    </row>
+    <row r="119" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B119" s="5"/>
       <c r="C119" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="D119" s="5"/>
       <c r="E119" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="G119" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
+      <c r="G119" s="8" t="s">
+        <v>1368</v>
+      </c>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
-      <c r="Z119" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    </row>
+    <row r="120" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A120" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="B120" s="5"/>
       <c r="C120" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="D120" s="5"/>
       <c r="E120" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="G120" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
+      <c r="G120" s="8" t="s">
+        <v>1369</v>
+      </c>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
-      <c r="Z120" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    </row>
+    <row r="121" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A121" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B121" s="5"/>
       <c r="C121" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="D121" s="5"/>
       <c r="E121" s="3" t="s">
         <v>1068</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
+      <c r="G121" s="8" t="s">
+        <v>1370</v>
+      </c>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
-      <c r="Z121" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    </row>
+    <row r="122" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A122" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B122" s="5"/>
       <c r="C122" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="D122" s="5"/>
       <c r="E122" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="G122" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
+      <c r="G122" s="8" t="s">
+        <v>1371</v>
+      </c>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
-      <c r="Z122" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    </row>
+    <row r="123" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A123" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B123" s="5"/>
       <c r="C123" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D123" s="5"/>
       <c r="E123" s="3" t="s">
         <v>1076</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="G123" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
+      <c r="G123" s="8" t="s">
+        <v>1372</v>
+      </c>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
-      <c r="Z123" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    </row>
+    <row r="124" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B124" s="5"/>
       <c r="C124" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="D124" s="5"/>
       <c r="E124" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="G124" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
+      <c r="G124" s="8" t="s">
+        <v>1373</v>
+      </c>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
-      <c r="Z124" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    </row>
+    <row r="125" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A125" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B125" s="5"/>
       <c r="C125" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="D125" s="5"/>
       <c r="E125" s="3" t="s">
         <v>1084</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="G125" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
+      <c r="G125" s="8" t="s">
+        <v>1374</v>
+      </c>
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
-      <c r="Z125" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    </row>
+    <row r="126" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A126" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="B126" s="5"/>
       <c r="C126" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="D126" s="5"/>
       <c r="E126" s="3" t="s">
         <v>1088</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="G126" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
+      <c r="G126" s="8" t="s">
+        <v>1375</v>
+      </c>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
-      <c r="Z126" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    </row>
+    <row r="127" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B127" s="5"/>
       <c r="C127" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="D127" s="5"/>
       <c r="E127" s="3" t="s">
         <v>1092</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
+      <c r="G127" s="8" t="s">
+        <v>1376</v>
+      </c>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
-      <c r="Z127" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    </row>
+    <row r="128" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A128" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B128" s="5"/>
       <c r="C128" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="D128" s="5"/>
       <c r="E128" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
+      <c r="G128" s="8" t="s">
+        <v>1377</v>
+      </c>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
-      <c r="Z128" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    </row>
+    <row r="129" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A129" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="B129" s="5"/>
       <c r="C129" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="D129" s="5"/>
       <c r="E129" s="3" t="s">
         <v>1100</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
+      <c r="G129" s="8" t="s">
+        <v>1378</v>
+      </c>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
-      <c r="Z129" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    </row>
+    <row r="130" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A130" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B130" s="5"/>
       <c r="C130" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="D130" s="5"/>
       <c r="E130" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
+      <c r="G130" s="8" t="s">
+        <v>1379</v>
+      </c>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
-      <c r="Z130" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    </row>
+    <row r="131" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A131" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="B131" s="5"/>
       <c r="C131" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="D131" s="5"/>
       <c r="E131" s="3" t="s">
         <v>1108</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="G131" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
+      <c r="G131" s="8" t="s">
+        <v>1380</v>
+      </c>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
-      <c r="Z131" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    </row>
+    <row r="132" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A132" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="B132" s="5"/>
       <c r="C132" s="3" t="s">
         <v>1111</v>
       </c>
@@ -10395,34 +10476,20 @@
       <c r="F132" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="G132" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
+      <c r="G132" s="8" t="s">
+        <v>1381</v>
+      </c>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
-      <c r="Z132" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    </row>
+    <row r="133" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A133" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="B133" s="5"/>
       <c r="C133" s="3" t="s">
         <v>1115</v>
       </c>
@@ -10433,34 +10500,20 @@
       <c r="F133" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
+      <c r="G133" s="8" t="s">
+        <v>1382</v>
+      </c>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
-      <c r="Z133" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    </row>
+    <row r="134" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A134" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="B134" s="5"/>
       <c r="C134" s="3" t="s">
         <v>1119</v>
       </c>
@@ -10471,34 +10524,20 @@
       <c r="F134" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="G134" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
+      <c r="G134" s="8" t="s">
+        <v>1383</v>
+      </c>
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
-      <c r="Z134" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    </row>
+    <row r="135" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A135" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="B135" s="5"/>
       <c r="C135" s="3" t="s">
         <v>1123</v>
       </c>
@@ -10509,34 +10548,20 @@
       <c r="F135" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="G135" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
+      <c r="G135" s="8" t="s">
+        <v>1384</v>
+      </c>
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
-      <c r="Z135" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    </row>
+    <row r="136" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A136" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="B136" s="5"/>
       <c r="C136" s="3" t="s">
         <v>1127</v>
       </c>
@@ -10547,34 +10572,20 @@
       <c r="F136" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
+      <c r="G136" s="8" t="s">
+        <v>1385</v>
+      </c>
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
-      <c r="Z136" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    </row>
+    <row r="137" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A137" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="B137" s="5"/>
       <c r="C137" s="3" t="s">
         <v>1131</v>
       </c>
@@ -10585,34 +10596,20 @@
       <c r="F137" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
+      <c r="G137" s="8" t="s">
+        <v>1386</v>
+      </c>
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
-      <c r="Z137" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    </row>
+    <row r="138" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A138" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="B138" s="5"/>
       <c r="C138" s="3" t="s">
         <v>1135</v>
       </c>
@@ -10623,3778 +10620,1095 @@
       <c r="F138" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="G138" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
+      <c r="G138" s="8" t="s">
+        <v>1387</v>
+      </c>
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
-      <c r="Z138" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    </row>
+    <row r="139" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A139" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B139" s="5"/>
       <c r="C139" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="D139" s="5"/>
       <c r="E139" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="G139" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
+      <c r="G139" s="8" t="s">
+        <v>1388</v>
+      </c>
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
-      <c r="Z139" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    </row>
+    <row r="140" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B140" s="5"/>
       <c r="C140" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="D140" s="5"/>
       <c r="E140" s="3" t="s">
         <v>1144</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="G140" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
+      <c r="G140" s="8" t="s">
+        <v>1389</v>
+      </c>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
-      <c r="Z140" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    </row>
+    <row r="141" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A141" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="B141" s="5"/>
       <c r="C141" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="D141" s="5"/>
       <c r="E141" s="3" t="s">
         <v>1148</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="G141" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
+      <c r="G141" s="8" t="s">
+        <v>1390</v>
+      </c>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
-      <c r="Z141" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    </row>
+    <row r="142" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A142" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="B142" s="5"/>
       <c r="C142" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="D142" s="5"/>
       <c r="E142" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
+      <c r="G142" s="8" t="s">
+        <v>1391</v>
+      </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
-      <c r="Z142" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    </row>
+    <row r="143" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="B143" s="5"/>
       <c r="C143" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="D143" s="5"/>
       <c r="E143" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
+      <c r="G143" s="8" t="s">
+        <v>1392</v>
+      </c>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
-      <c r="Z143" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    </row>
+    <row r="144" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="B144" s="5"/>
       <c r="C144" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="D144" s="5"/>
       <c r="E144" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
+      <c r="G144" s="8" t="s">
+        <v>1393</v>
+      </c>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
-      <c r="Z144" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    </row>
+    <row r="145" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A145" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B145" s="5"/>
       <c r="C145" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="D145" s="5"/>
       <c r="E145" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="F145" s="5"/>
-      <c r="G145" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
+      <c r="G145" s="8" t="s">
+        <v>1394</v>
+      </c>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
-      <c r="Z145" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    </row>
+    <row r="146" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A146" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="B146" s="5"/>
       <c r="C146" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="D146" s="5"/>
       <c r="E146" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="F146" s="5"/>
-      <c r="G146" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
+      <c r="G146" s="8" t="s">
+        <v>1395</v>
+      </c>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
-      <c r="Z146" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    </row>
+    <row r="147" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A147" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="B147" s="5"/>
       <c r="C147" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="D147" s="5"/>
       <c r="E147" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
+      <c r="G147" s="8" t="s">
+        <v>1396</v>
+      </c>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
-      <c r="Z147" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    </row>
+    <row r="148" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A148" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B148" s="5"/>
       <c r="C148" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="D148" s="5"/>
       <c r="E148" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="F148" s="5"/>
-      <c r="G148" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H148" s="5"/>
+      <c r="G148" s="8" t="s">
+        <v>1397</v>
+      </c>
       <c r="I148" s="3"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
-      <c r="Z148" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    </row>
+    <row r="149" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A149" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="B149" s="5"/>
       <c r="C149" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="D149" s="5"/>
       <c r="E149" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="F149" s="5"/>
-      <c r="G149" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H149" s="5"/>
+      <c r="G149" s="8" t="s">
+        <v>1398</v>
+      </c>
       <c r="I149" s="3"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
-      <c r="Z149" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    </row>
+    <row r="150" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A150" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B150" s="5"/>
       <c r="C150" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="D150" s="5"/>
       <c r="E150" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="F150" s="5"/>
-      <c r="G150" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H150" s="5"/>
+      <c r="G150" s="8" t="s">
+        <v>1399</v>
+      </c>
       <c r="I150" s="3"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
-      <c r="Z150" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    </row>
+    <row r="151" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A151" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="B151" s="5"/>
       <c r="C151" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="D151" s="5"/>
       <c r="E151" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="F151" s="5"/>
-      <c r="G151" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
+      <c r="G151" s="8" t="s">
+        <v>1400</v>
+      </c>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
-      <c r="Z151" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    </row>
+    <row r="152" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A152" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="B152" s="5"/>
       <c r="C152" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D152" s="5"/>
       <c r="E152" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
+      <c r="G152" s="8" t="s">
+        <v>1401</v>
+      </c>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
-      <c r="Z152" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    </row>
+    <row r="153" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A153" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B153" s="5"/>
       <c r="C153" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="D153" s="5"/>
       <c r="E153" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
+      <c r="G153" s="8" t="s">
+        <v>1402</v>
+      </c>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
-      <c r="Z153" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    </row>
+    <row r="154" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A154" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="B154" s="5"/>
       <c r="C154" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="D154" s="5"/>
       <c r="E154" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="F154" s="5"/>
-      <c r="G154" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
+      <c r="G154" s="8" t="s">
+        <v>1403</v>
+      </c>
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
-      <c r="Z154" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    </row>
+    <row r="155" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A155" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="B155" s="5"/>
       <c r="C155" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="D155" s="5"/>
       <c r="E155" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="F155" s="5"/>
-      <c r="G155" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
+      <c r="G155" s="8" t="s">
+        <v>1404</v>
+      </c>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
-      <c r="Z155" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    </row>
+    <row r="156" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A156" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B156" s="5"/>
       <c r="C156" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="D156" s="5"/>
       <c r="E156" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="F156" s="5"/>
-      <c r="G156" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
+      <c r="G156" s="8" t="s">
+        <v>1405</v>
+      </c>
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
-      <c r="Z156" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    </row>
+    <row r="157" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A157" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="B157" s="5"/>
       <c r="C157" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="D157" s="5"/>
       <c r="E157" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="F157" s="5"/>
-      <c r="G157" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
+      <c r="G157" s="8" t="s">
+        <v>1406</v>
+      </c>
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
-      <c r="Z157" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    </row>
+    <row r="158" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A158" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="B158" s="5"/>
       <c r="C158" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="D158" s="5"/>
       <c r="E158" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="F158" s="5"/>
-      <c r="G158" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
+      <c r="G158" s="8" t="s">
+        <v>1407</v>
+      </c>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
-      <c r="Z158" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    </row>
+    <row r="159" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A159" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="B159" s="5"/>
       <c r="C159" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="D159" s="5"/>
       <c r="E159" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F159" s="5"/>
-      <c r="G159" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
+      <c r="G159" s="8" t="s">
+        <v>1408</v>
+      </c>
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
-      <c r="Z159" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    </row>
+    <row r="160" spans="1:25" ht="18.75" customHeight="1" thickBot="1">
       <c r="A160" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="B160" s="5"/>
       <c r="C160" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="D160" s="5"/>
       <c r="E160" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="F160" s="5"/>
-      <c r="G160" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
+      <c r="G160" s="8" t="s">
+        <v>1409</v>
+      </c>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="4"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    </row>
+    <row r="161" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A161" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="B161" s="5"/>
       <c r="C161" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="D161" s="5"/>
       <c r="E161" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
+      <c r="G161" s="8" t="s">
+        <v>1410</v>
+      </c>
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
-      <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    </row>
+    <row r="162" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A162" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B162" s="5"/>
       <c r="C162" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="D162" s="5"/>
       <c r="E162" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
+      <c r="G162" s="8" t="s">
+        <v>1411</v>
+      </c>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
-      <c r="Y162" s="5"/>
-      <c r="Z162" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    </row>
+    <row r="163" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A163" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="B163" s="5"/>
       <c r="C163" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="D163" s="5"/>
       <c r="E163" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="F163" s="5"/>
-      <c r="G163" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
+      <c r="G163" s="8" t="s">
+        <v>1412</v>
+      </c>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
       <c r="X163" s="4"/>
-      <c r="Y163" s="5"/>
-      <c r="Z163" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    </row>
+    <row r="164" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A164" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B164" s="5"/>
       <c r="C164" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
+      <c r="G164" s="8" t="s">
+        <v>1413</v>
+      </c>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
       <c r="X164" s="4"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    </row>
+    <row r="165" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A165" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B165" s="5"/>
       <c r="C165" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
+      <c r="G165" s="8" t="s">
+        <v>1414</v>
+      </c>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
       <c r="X165" s="4"/>
-      <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    </row>
+    <row r="166" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A166" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B166" s="5"/>
       <c r="C166" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
+      <c r="G166" s="8" t="s">
+        <v>1415</v>
+      </c>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
       <c r="X166" s="4"/>
-      <c r="Y166" s="5"/>
-      <c r="Z166" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    </row>
+    <row r="167" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A167" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="B167" s="5"/>
       <c r="C167" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
+      <c r="G167" s="8" t="s">
+        <v>1416</v>
+      </c>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
       <c r="X167" s="4"/>
-      <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    </row>
+    <row r="168" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A168" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B168" s="5"/>
       <c r="C168" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5"/>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
+      <c r="G168" s="8" t="s">
+        <v>1417</v>
+      </c>
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
       <c r="X168" s="4"/>
-      <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    </row>
+    <row r="169" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A169" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B169" s="5"/>
       <c r="C169" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
+      <c r="G169" s="8" t="s">
+        <v>1418</v>
+      </c>
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
       <c r="X169" s="4"/>
-      <c r="Y169" s="5"/>
-      <c r="Z169" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    </row>
+    <row r="170" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A170" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B170" s="5"/>
       <c r="C170" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
+      <c r="G170" s="8" t="s">
+        <v>1419</v>
+      </c>
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
       <c r="X170" s="4"/>
-      <c r="Y170" s="5"/>
-      <c r="Z170" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    </row>
+    <row r="171" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A171" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="B171" s="5"/>
       <c r="C171" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
+      <c r="G171" s="8" t="s">
+        <v>1420</v>
+      </c>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
       <c r="X171" s="4"/>
-      <c r="Y171" s="5"/>
-      <c r="Z171" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    </row>
+    <row r="172" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A172" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B172" s="5"/>
       <c r="C172" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
+      <c r="G172" s="8" t="s">
+        <v>1421</v>
+      </c>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
       <c r="X172" s="4"/>
-      <c r="Y172" s="5"/>
-      <c r="Z172" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    </row>
+    <row r="173" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A173" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B173" s="5"/>
       <c r="C173" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
+      <c r="G173" s="8" t="s">
+        <v>1422</v>
+      </c>
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
       <c r="X173" s="4"/>
-      <c r="Y173" s="5"/>
-      <c r="Z173" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    </row>
+    <row r="174" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A174" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="B174" s="5"/>
       <c r="C174" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
+      <c r="G174" s="8" t="s">
+        <v>1423</v>
+      </c>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
       <c r="X174" s="4"/>
-      <c r="Y174" s="5"/>
-      <c r="Z174" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    </row>
+    <row r="175" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A175" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="B175" s="5"/>
       <c r="C175" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
+      <c r="G175" s="8" t="s">
+        <v>1424</v>
+      </c>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
       <c r="X175" s="4"/>
-      <c r="Y175" s="5"/>
-      <c r="Z175" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    </row>
+    <row r="176" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A176" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="B176" s="5"/>
       <c r="C176" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
+      <c r="G176" s="8" t="s">
+        <v>1425</v>
+      </c>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
       <c r="X176" s="4"/>
-      <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    </row>
+    <row r="177" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A177" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="B177" s="5"/>
       <c r="C177" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
+      <c r="G177" s="8" t="s">
+        <v>1426</v>
+      </c>
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
       <c r="X177" s="4"/>
-      <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    </row>
+    <row r="178" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A178" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="B178" s="5"/>
       <c r="C178" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
+      <c r="G178" s="8" t="s">
+        <v>1427</v>
+      </c>
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
       <c r="X178" s="4"/>
-      <c r="Y178" s="5"/>
-      <c r="Z178" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    </row>
+    <row r="179" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A179" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B179" s="5"/>
       <c r="C179" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
-      <c r="O179" s="5"/>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5"/>
-      <c r="V179" s="5"/>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
-      <c r="Z179" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="G179" s="8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A180" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="B180" s="5"/>
       <c r="C180" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
-      <c r="O180" s="5"/>
-      <c r="P180" s="5"/>
-      <c r="Q180" s="5"/>
-      <c r="R180" s="5"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5"/>
-      <c r="V180" s="5"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
-      <c r="Z180" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="G180" s="8" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A181" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="B181" s="5"/>
       <c r="C181" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
-      <c r="O181" s="5"/>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5"/>
-      <c r="V181" s="5"/>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
-      <c r="Z181" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="G181" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="B182" s="5"/>
       <c r="C182" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5"/>
-      <c r="V182" s="5"/>
-      <c r="W182" s="5"/>
-      <c r="X182" s="5"/>
-      <c r="Y182" s="5"/>
-      <c r="Z182" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="G182" s="8" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A183" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="B183" s="5"/>
       <c r="C183" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5"/>
-      <c r="V183" s="5"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-      <c r="Y183" s="5"/>
-      <c r="Z183" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="G183" s="8" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A184" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B184" s="5"/>
       <c r="C184" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
-      <c r="O184" s="5"/>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5"/>
-      <c r="V184" s="5"/>
-      <c r="W184" s="5"/>
-      <c r="X184" s="5"/>
-      <c r="Y184" s="5"/>
-      <c r="Z184" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="G184" s="8" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A185" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B185" s="5"/>
       <c r="C185" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
-      <c r="O185" s="5"/>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5"/>
-      <c r="V185" s="5"/>
-      <c r="W185" s="5"/>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
-      <c r="Z185" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="G185" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A186" s="2"/>
-      <c r="B186" s="5"/>
       <c r="C186" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
-      <c r="O186" s="5"/>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5"/>
-      <c r="V186" s="5"/>
-      <c r="W186" s="5"/>
-      <c r="X186" s="5"/>
-      <c r="Y186" s="5"/>
-      <c r="Z186" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="G186" s="8" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A187" s="2"/>
-      <c r="B187" s="5"/>
       <c r="C187" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5"/>
-      <c r="V187" s="5"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
-      <c r="Z187" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
+      <c r="G187" s="8" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="C188" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
-      <c r="O188" s="5"/>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-      <c r="U188" s="5"/>
-      <c r="V188" s="5"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="5"/>
-      <c r="Y188" s="5"/>
-      <c r="Z188" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
+      <c r="G188" s="8" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" ht="18.75" customHeight="1">
       <c r="C189" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="6" t="s">
+      <c r="G189" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5"/>
-      <c r="V189" s="5"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
+    </row>
+    <row r="190" spans="1:24" ht="18.75" customHeight="1">
       <c r="C190" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5"/>
-      <c r="V190" s="5"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
-      <c r="Z190" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
+    </row>
+    <row r="191" spans="1:24" ht="18.75" customHeight="1">
       <c r="C191" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5"/>
-      <c r="V191" s="5"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
-      <c r="Z191" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
+    </row>
+    <row r="192" spans="1:24" ht="18.75" customHeight="1">
       <c r="C192" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5"/>
-      <c r="V192" s="5"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
-      <c r="Z192" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    </row>
+    <row r="193" spans="1:3" ht="18.75" customHeight="1">
       <c r="A193" s="3"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="5"/>
-      <c r="Y193" s="5"/>
-      <c r="Z193" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="1:3" ht="18.75" customHeight="1">
       <c r="A194" s="3"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5"/>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
-      <c r="Y194" s="5"/>
-      <c r="Z194" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5"/>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5"/>
-      <c r="V195" s="5"/>
-      <c r="W195" s="5"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
-      <c r="Z195" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5"/>
-      <c r="V196" s="5"/>
-      <c r="W196" s="5"/>
-      <c r="X196" s="5"/>
-      <c r="Y196" s="5"/>
-      <c r="Z196" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5"/>
-      <c r="V197" s="5"/>
-      <c r="W197" s="5"/>
-      <c r="X197" s="5"/>
-      <c r="Y197" s="5"/>
-      <c r="Z197" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5"/>
-      <c r="V198" s="5"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5"/>
-      <c r="V199" s="5"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5"/>
-      <c r="V200" s="5"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
-      <c r="Z200" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5"/>
-      <c r="V201" s="5"/>
-      <c r="W201" s="5"/>
-      <c r="X201" s="5"/>
-      <c r="Y201" s="5"/>
-      <c r="Z201" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5"/>
-      <c r="V202" s="5"/>
-      <c r="W202" s="5"/>
-      <c r="X202" s="5"/>
-      <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5"/>
-      <c r="V203" s="5"/>
-      <c r="W203" s="5"/>
-      <c r="X203" s="5"/>
-      <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="5"/>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
-      <c r="U204" s="5"/>
-      <c r="V204" s="5"/>
-      <c r="W204" s="5"/>
-      <c r="X204" s="5"/>
-      <c r="Y204" s="5"/>
-      <c r="Z204" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="5"/>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5"/>
-      <c r="V205" s="5"/>
-      <c r="W205" s="5"/>
-      <c r="X205" s="5"/>
-      <c r="Y205" s="5"/>
-      <c r="Z205" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="5"/>
-      <c r="X206" s="5"/>
-      <c r="Y206" s="5"/>
-      <c r="Z206" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5"/>
-      <c r="V207" s="5"/>
-      <c r="W207" s="5"/>
-      <c r="X207" s="5"/>
-      <c r="Y207" s="5"/>
-      <c r="Z207" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="5"/>
-      <c r="W208" s="5"/>
-      <c r="X208" s="5"/>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5"/>
-      <c r="V209" s="5"/>
-      <c r="W209" s="5"/>
-      <c r="X209" s="5"/>
-      <c r="Y209" s="5"/>
-      <c r="Z209" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5"/>
-      <c r="V210" s="5"/>
-      <c r="W210" s="5"/>
-      <c r="X210" s="5"/>
-      <c r="Y210" s="5"/>
-      <c r="Z210" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
-      <c r="O211" s="5"/>
-      <c r="P211" s="5"/>
-      <c r="Q211" s="5"/>
-      <c r="R211" s="5"/>
-      <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
-      <c r="U211" s="5"/>
-      <c r="V211" s="5"/>
-      <c r="W211" s="5"/>
-      <c r="X211" s="5"/>
-      <c r="Y211" s="5"/>
-      <c r="Z211" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="5"/>
-      <c r="M212" s="5"/>
-      <c r="N212" s="5"/>
-      <c r="O212" s="5"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5"/>
-      <c r="V212" s="5"/>
-      <c r="W212" s="5"/>
-      <c r="X212" s="5"/>
-      <c r="Y212" s="5"/>
-      <c r="Z212" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
-      <c r="W213" s="5"/>
-      <c r="X213" s="5"/>
-      <c r="Y213" s="5"/>
-      <c r="Z213" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="5"/>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5"/>
-      <c r="V214" s="5"/>
-      <c r="W214" s="5"/>
-      <c r="X214" s="5"/>
-      <c r="Y214" s="5"/>
-      <c r="Z214" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5"/>
-      <c r="K215" s="5"/>
-      <c r="L215" s="5"/>
-      <c r="M215" s="5"/>
-      <c r="N215" s="5"/>
-      <c r="O215" s="5"/>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5"/>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5"/>
-      <c r="V215" s="5"/>
-      <c r="W215" s="5"/>
-      <c r="X215" s="5"/>
-      <c r="Y215" s="5"/>
-      <c r="Z215" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5"/>
-      <c r="P216" s="5"/>
-      <c r="Q216" s="5"/>
-      <c r="R216" s="5"/>
-      <c r="S216" s="5"/>
-      <c r="T216" s="5"/>
-      <c r="U216" s="5"/>
-      <c r="V216" s="5"/>
-      <c r="W216" s="5"/>
-      <c r="X216" s="5"/>
-      <c r="Y216" s="5"/>
-      <c r="Z216" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5"/>
-      <c r="V217" s="5"/>
-      <c r="W217" s="5"/>
-      <c r="X217" s="5"/>
-      <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
-      <c r="M218" s="5"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
-      <c r="W218" s="5"/>
-      <c r="X218" s="5"/>
-      <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
-      <c r="M219" s="5"/>
-      <c r="N219" s="5"/>
-      <c r="O219" s="5"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
-      <c r="R219" s="5"/>
-      <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
-      <c r="U219" s="5"/>
-      <c r="V219" s="5"/>
-      <c r="W219" s="5"/>
-      <c r="X219" s="5"/>
-      <c r="Y219" s="5"/>
-      <c r="Z219" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
-      <c r="M220" s="5"/>
-      <c r="N220" s="5"/>
-      <c r="O220" s="5"/>
-      <c r="P220" s="5"/>
-      <c r="Q220" s="5"/>
-      <c r="R220" s="5"/>
-      <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
-      <c r="U220" s="5"/>
-      <c r="V220" s="5"/>
-      <c r="W220" s="5"/>
-      <c r="X220" s="5"/>
-      <c r="Y220" s="5"/>
-      <c r="Z220" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="5"/>
-      <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
-      <c r="M221" s="5"/>
-      <c r="N221" s="5"/>
-      <c r="O221" s="5"/>
-      <c r="P221" s="5"/>
-      <c r="Q221" s="5"/>
-      <c r="R221" s="5"/>
-      <c r="S221" s="5"/>
-      <c r="T221" s="5"/>
-      <c r="U221" s="5"/>
-      <c r="V221" s="5"/>
-      <c r="W221" s="5"/>
-      <c r="X221" s="5"/>
-      <c r="Y221" s="5"/>
-      <c r="Z221" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
-      <c r="M222" s="5"/>
-      <c r="N222" s="5"/>
-      <c r="O222" s="5"/>
-      <c r="P222" s="5"/>
-      <c r="Q222" s="5"/>
-      <c r="R222" s="5"/>
-      <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
-      <c r="U222" s="5"/>
-      <c r="V222" s="5"/>
-      <c r="W222" s="5"/>
-      <c r="X222" s="5"/>
-      <c r="Y222" s="5"/>
-      <c r="Z222" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
-      <c r="M223" s="5"/>
-      <c r="N223" s="5"/>
-      <c r="O223" s="5"/>
-      <c r="P223" s="5"/>
-      <c r="Q223" s="5"/>
-      <c r="R223" s="5"/>
-      <c r="S223" s="5"/>
-      <c r="T223" s="5"/>
-      <c r="U223" s="5"/>
-      <c r="V223" s="5"/>
-      <c r="W223" s="5"/>
-      <c r="X223" s="5"/>
-      <c r="Y223" s="5"/>
-      <c r="Z223" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="5"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="5"/>
-      <c r="M224" s="5"/>
-      <c r="N224" s="5"/>
-      <c r="O224" s="5"/>
-      <c r="P224" s="5"/>
-      <c r="Q224" s="5"/>
-      <c r="R224" s="5"/>
-      <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
-      <c r="U224" s="5"/>
-      <c r="V224" s="5"/>
-      <c r="W224" s="5"/>
-      <c r="X224" s="5"/>
-      <c r="Y224" s="5"/>
-      <c r="Z224" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="5"/>
-      <c r="K225" s="5"/>
-      <c r="L225" s="5"/>
-      <c r="M225" s="5"/>
-      <c r="N225" s="5"/>
-      <c r="O225" s="5"/>
-      <c r="P225" s="5"/>
-      <c r="Q225" s="5"/>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
-      <c r="U225" s="5"/>
-      <c r="V225" s="5"/>
-      <c r="W225" s="5"/>
-      <c r="X225" s="5"/>
-      <c r="Y225" s="5"/>
-      <c r="Z225" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="5"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="5"/>
-      <c r="M226" s="5"/>
-      <c r="N226" s="5"/>
-      <c r="O226" s="5"/>
-      <c r="P226" s="5"/>
-      <c r="Q226" s="5"/>
-      <c r="R226" s="5"/>
-      <c r="S226" s="5"/>
-      <c r="T226" s="5"/>
-      <c r="U226" s="5"/>
-      <c r="V226" s="5"/>
-      <c r="W226" s="5"/>
-      <c r="X226" s="5"/>
-      <c r="Y226" s="5"/>
-      <c r="Z226" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="5"/>
-      <c r="M227" s="5"/>
-      <c r="N227" s="5"/>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5"/>
-      <c r="V227" s="5"/>
-      <c r="W227" s="5"/>
-      <c r="X227" s="5"/>
-      <c r="Y227" s="5"/>
-      <c r="Z227" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
-      <c r="M228" s="5"/>
-      <c r="N228" s="5"/>
-      <c r="O228" s="5"/>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5"/>
-      <c r="V228" s="5"/>
-      <c r="W228" s="5"/>
-      <c r="X228" s="5"/>
-      <c r="Y228" s="5"/>
-      <c r="Z228" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="5"/>
-      <c r="N229" s="5"/>
-      <c r="O229" s="5"/>
-      <c r="P229" s="5"/>
-      <c r="Q229" s="5"/>
-      <c r="R229" s="5"/>
-      <c r="S229" s="5"/>
-      <c r="T229" s="5"/>
-      <c r="U229" s="5"/>
-      <c r="V229" s="5"/>
-      <c r="W229" s="5"/>
-      <c r="X229" s="5"/>
-      <c r="Y229" s="5"/>
-      <c r="Z229" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="5"/>
-      <c r="N230" s="5"/>
-      <c r="O230" s="5"/>
-      <c r="P230" s="5"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="5"/>
-      <c r="W230" s="5"/>
-      <c r="X230" s="5"/>
-      <c r="Y230" s="5"/>
-      <c r="Z230" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="5"/>
-      <c r="M231" s="5"/>
-      <c r="N231" s="5"/>
-      <c r="O231" s="5"/>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5"/>
-      <c r="V231" s="5"/>
-      <c r="W231" s="5"/>
-      <c r="X231" s="5"/>
-      <c r="Y231" s="5"/>
-      <c r="Z231" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
-      <c r="M232" s="5"/>
-      <c r="N232" s="5"/>
-      <c r="O232" s="5"/>
-      <c r="P232" s="5"/>
-      <c r="Q232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5"/>
-      <c r="V232" s="5"/>
-      <c r="W232" s="5"/>
-      <c r="X232" s="5"/>
-      <c r="Y232" s="5"/>
-      <c r="Z232" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="5"/>
-      <c r="N233" s="5"/>
-      <c r="O233" s="5"/>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
-      <c r="U233" s="5"/>
-      <c r="V233" s="5"/>
-      <c r="W233" s="5"/>
-      <c r="X233" s="5"/>
-      <c r="Y233" s="5"/>
-      <c r="Z233" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="5"/>
-      <c r="N234" s="5"/>
-      <c r="O234" s="5"/>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
-      <c r="U234" s="5"/>
-      <c r="V234" s="5"/>
-      <c r="W234" s="5"/>
-      <c r="X234" s="5"/>
-      <c r="Y234" s="5"/>
-      <c r="Z234" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="5"/>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
-      <c r="U235" s="5"/>
-      <c r="V235" s="5"/>
-      <c r="W235" s="5"/>
-      <c r="X235" s="5"/>
-      <c r="Y235" s="5"/>
-      <c r="Z235" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="5"/>
-      <c r="N236" s="5"/>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5"/>
-      <c r="V236" s="5"/>
-      <c r="W236" s="5"/>
-      <c r="X236" s="5"/>
-      <c r="Y236" s="5"/>
-      <c r="Z236" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="5"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5"/>
-      <c r="V237" s="5"/>
-      <c r="W237" s="5"/>
-      <c r="X237" s="5"/>
-      <c r="Y237" s="5"/>
-      <c r="Z237" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
-      <c r="M238" s="5"/>
-      <c r="N238" s="5"/>
-      <c r="O238" s="5"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
-      <c r="U238" s="5"/>
-      <c r="V238" s="5"/>
-      <c r="W238" s="5"/>
-      <c r="X238" s="5"/>
-      <c r="Y238" s="5"/>
-      <c r="Z238" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
-      <c r="M239" s="5"/>
-      <c r="N239" s="5"/>
-      <c r="O239" s="5"/>
-      <c r="P239" s="5"/>
-      <c r="Q239" s="5"/>
-      <c r="R239" s="5"/>
-      <c r="S239" s="5"/>
-      <c r="T239" s="5"/>
-      <c r="U239" s="5"/>
-      <c r="V239" s="5"/>
-      <c r="W239" s="5"/>
-      <c r="X239" s="5"/>
-      <c r="Y239" s="5"/>
-      <c r="Z239" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
-      <c r="M240" s="5"/>
-      <c r="N240" s="5"/>
-      <c r="O240" s="5"/>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5"/>
-      <c r="V240" s="5"/>
-      <c r="W240" s="5"/>
-      <c r="X240" s="5"/>
-      <c r="Y240" s="5"/>
-      <c r="Z240" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
-      <c r="P241" s="5"/>
-      <c r="Q241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
-      <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
-      <c r="W241" s="5"/>
-      <c r="X241" s="5"/>
-      <c r="Y241" s="5"/>
-      <c r="Z241" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="5"/>
-      <c r="K242" s="5"/>
-      <c r="L242" s="5"/>
-      <c r="M242" s="5"/>
-      <c r="N242" s="5"/>
-      <c r="O242" s="5"/>
-      <c r="P242" s="5"/>
-      <c r="Q242" s="5"/>
-      <c r="R242" s="5"/>
-      <c r="S242" s="5"/>
-      <c r="T242" s="5"/>
-      <c r="U242" s="5"/>
-      <c r="V242" s="5"/>
-      <c r="W242" s="5"/>
-      <c r="X242" s="5"/>
-      <c r="Y242" s="5"/>
-      <c r="Z242" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="5"/>
-      <c r="K243" s="5"/>
-      <c r="L243" s="5"/>
-      <c r="M243" s="5"/>
-      <c r="N243" s="5"/>
-      <c r="O243" s="5"/>
-      <c r="P243" s="5"/>
-      <c r="Q243" s="5"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
-      <c r="U243" s="5"/>
-      <c r="V243" s="5"/>
-      <c r="W243" s="5"/>
-      <c r="X243" s="5"/>
-      <c r="Y243" s="5"/>
-      <c r="Z243" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
-      <c r="K244" s="5"/>
-      <c r="L244" s="5"/>
-      <c r="M244" s="5"/>
-      <c r="N244" s="5"/>
-      <c r="O244" s="5"/>
-      <c r="P244" s="5"/>
-      <c r="Q244" s="5"/>
-      <c r="R244" s="5"/>
-      <c r="S244" s="5"/>
-      <c r="T244" s="5"/>
-      <c r="U244" s="5"/>
-      <c r="V244" s="5"/>
-      <c r="W244" s="5"/>
-      <c r="X244" s="5"/>
-      <c r="Y244" s="5"/>
-      <c r="Z244" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
-      <c r="M245" s="5"/>
-      <c r="N245" s="5"/>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5"/>
-      <c r="V245" s="5"/>
-      <c r="W245" s="5"/>
-      <c r="X245" s="5"/>
-      <c r="Y245" s="5"/>
-      <c r="Z245" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
-      <c r="L246" s="5"/>
-      <c r="M246" s="5"/>
-      <c r="N246" s="5"/>
-      <c r="O246" s="5"/>
-      <c r="P246" s="5"/>
-      <c r="Q246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5"/>
-      <c r="V246" s="5"/>
-      <c r="W246" s="5"/>
-      <c r="X246" s="5"/>
-      <c r="Y246" s="5"/>
-      <c r="Z246" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
-      <c r="L247" s="5"/>
-      <c r="M247" s="5"/>
-      <c r="N247" s="5"/>
-      <c r="O247" s="5"/>
-      <c r="P247" s="5"/>
-      <c r="Q247" s="5"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="5"/>
-      <c r="T247" s="5"/>
-      <c r="U247" s="5"/>
-      <c r="V247" s="5"/>
-      <c r="W247" s="5"/>
-      <c r="X247" s="5"/>
-      <c r="Y247" s="5"/>
-      <c r="Z247" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="5"/>
-      <c r="K248" s="5"/>
-      <c r="L248" s="5"/>
-      <c r="M248" s="5"/>
-      <c r="N248" s="5"/>
-      <c r="O248" s="5"/>
-      <c r="P248" s="5"/>
-      <c r="Q248" s="5"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="5"/>
-      <c r="T248" s="5"/>
-      <c r="U248" s="5"/>
-      <c r="V248" s="5"/>
-      <c r="W248" s="5"/>
-      <c r="X248" s="5"/>
-      <c r="Y248" s="5"/>
-      <c r="Z248" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C198" s="6"/>
+    </row>
+    <row r="199" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C206" s="6"/>
+    </row>
+    <row r="207" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" spans="1:3" ht="18.75" customHeight="1">
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C230" s="6"/>
+    </row>
+    <row r="231" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C238" s="6"/>
+    </row>
+    <row r="239" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C247" s="6"/>
+    </row>
+    <row r="248" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="3:3" ht="18.75" customHeight="1">
       <c r="C249" s="3"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5"/>
-      <c r="K249" s="5"/>
-      <c r="L249" s="5"/>
-      <c r="M249" s="5"/>
-      <c r="N249" s="5"/>
-      <c r="O249" s="5"/>
-      <c r="P249" s="5"/>
-      <c r="Q249" s="5"/>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5"/>
-      <c r="V249" s="5"/>
-      <c r="W249" s="5"/>
-      <c r="X249" s="5"/>
-      <c r="Y249" s="5"/>
-      <c r="Z249" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-      <c r="I250" s="5"/>
-      <c r="J250" s="5"/>
-      <c r="K250" s="5"/>
-      <c r="L250" s="5"/>
-      <c r="M250" s="5"/>
-      <c r="N250" s="5"/>
-      <c r="O250" s="5"/>
-      <c r="P250" s="5"/>
-      <c r="Q250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
-      <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
-      <c r="W250" s="5"/>
-      <c r="X250" s="5"/>
-      <c r="Y250" s="5"/>
-      <c r="Z250" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
-      <c r="L251" s="5"/>
-      <c r="M251" s="5"/>
-      <c r="N251" s="5"/>
-      <c r="O251" s="5"/>
-      <c r="P251" s="5"/>
-      <c r="Q251" s="5"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
-      <c r="U251" s="5"/>
-      <c r="V251" s="5"/>
-      <c r="W251" s="5"/>
-      <c r="X251" s="5"/>
-      <c r="Y251" s="5"/>
-      <c r="Z251" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5"/>
-      <c r="H252" s="5"/>
-      <c r="I252" s="5"/>
-      <c r="J252" s="5"/>
-      <c r="K252" s="5"/>
-      <c r="L252" s="5"/>
-      <c r="M252" s="5"/>
-      <c r="N252" s="5"/>
-      <c r="O252" s="5"/>
-      <c r="P252" s="5"/>
-      <c r="Q252" s="5"/>
-      <c r="R252" s="5"/>
-      <c r="S252" s="5"/>
-      <c r="T252" s="5"/>
-      <c r="U252" s="5"/>
-      <c r="V252" s="5"/>
-      <c r="W252" s="5"/>
-      <c r="X252" s="5"/>
-      <c r="Y252" s="5"/>
-      <c r="Z252" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
-      <c r="H253" s="5"/>
-      <c r="I253" s="5"/>
-      <c r="J253" s="5"/>
-      <c r="K253" s="5"/>
-      <c r="L253" s="5"/>
-      <c r="M253" s="5"/>
-      <c r="N253" s="5"/>
-      <c r="O253" s="5"/>
-      <c r="P253" s="5"/>
-      <c r="Q253" s="5"/>
-      <c r="R253" s="5"/>
-      <c r="S253" s="5"/>
-      <c r="T253" s="5"/>
-      <c r="U253" s="5"/>
-      <c r="V253" s="5"/>
-      <c r="W253" s="5"/>
-      <c r="X253" s="5"/>
-      <c r="Y253" s="5"/>
-      <c r="Z253" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="5"/>
-      <c r="M254" s="5"/>
-      <c r="N254" s="5"/>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-      <c r="W254" s="5"/>
-      <c r="X254" s="5"/>
-      <c r="Y254" s="5"/>
-      <c r="Z254" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-      <c r="W255" s="5"/>
-      <c r="X255" s="5"/>
-      <c r="Y255" s="5"/>
-      <c r="Z255" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="5"/>
-      <c r="J256" s="5"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="5"/>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-      <c r="W256" s="5"/>
-      <c r="X256" s="5"/>
-      <c r="Y256" s="5"/>
-      <c r="Z256" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="5"/>
-      <c r="M257" s="5"/>
-      <c r="N257" s="5"/>
-      <c r="O257" s="5"/>
-      <c r="P257" s="5"/>
-      <c r="Q257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-      <c r="W257" s="5"/>
-      <c r="X257" s="5"/>
-      <c r="Y257" s="5"/>
-      <c r="Z257" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
+    </row>
+    <row r="250" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C252" s="6"/>
+    </row>
+    <row r="253" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" spans="3:3" ht="18.75" customHeight="1">
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" spans="3:3" ht="18.75" customHeight="1">
       <c r="C258" s="3"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5"/>
-      <c r="H258" s="5"/>
-      <c r="I258" s="5"/>
-      <c r="J258" s="5"/>
-      <c r="K258" s="5"/>
-      <c r="L258" s="5"/>
-      <c r="M258" s="5"/>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-      <c r="P258" s="5"/>
-      <c r="Q258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-      <c r="W258" s="5"/>
-      <c r="X258" s="5"/>
-      <c r="Y258" s="5"/>
-      <c r="Z258" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
+    </row>
+    <row r="259" spans="3:3" ht="18.75" customHeight="1">
       <c r="C259" s="3"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-      <c r="W259" s="5"/>
-      <c r="X259" s="5"/>
-      <c r="Y259" s="5"/>
-      <c r="Z259" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/Considered_Stocks.xlsx
+++ b/backend/Considered_Stocks.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1407">
   <si>
     <t>Information Technology</t>
   </si>
@@ -121,13 +121,13 @@
     <t>ABNB</t>
   </si>
   <si>
-    <t>APPH</t>
+    <t>ASAI</t>
   </si>
   <si>
     <t>AIG</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>ABCL</t>
   </si>
   <si>
     <t>ACM</t>
@@ -154,13 +154,13 @@
     <t>ACVA</t>
   </si>
   <si>
-    <t>ASAI</t>
+    <t>AVO</t>
   </si>
   <si>
     <t>AJG</t>
   </si>
   <si>
-    <t>ABCL</t>
+    <t>ABT</t>
   </si>
   <si>
     <t>ADP</t>
@@ -181,19 +181,19 @@
     <t>ADSK</t>
   </si>
   <si>
-    <t>ATVI</t>
+    <t>BCE</t>
   </si>
   <si>
     <t>ADNT</t>
   </si>
   <si>
-    <t>AVO</t>
+    <t>BF-B</t>
   </si>
   <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>ABT</t>
+    <t>ACLX</t>
   </si>
   <si>
     <t>ADT</t>
@@ -214,19 +214,19 @@
     <t>AI</t>
   </si>
   <si>
-    <t>BCE</t>
+    <t>BIDU</t>
   </si>
   <si>
     <t>AIN</t>
   </si>
   <si>
-    <t>BF-B</t>
+    <t>BG</t>
   </si>
   <si>
     <t>ALLY</t>
   </si>
   <si>
-    <t>ACLX</t>
+    <t>ADPT</t>
   </si>
   <si>
     <t>AER</t>
@@ -247,19 +247,19 @@
     <t>AKAM</t>
   </si>
   <si>
-    <t>BIDU</t>
+    <t>BILI</t>
   </si>
   <si>
     <t>ALSN</t>
   </si>
   <si>
-    <t>BG</t>
+    <t>BJ</t>
   </si>
   <si>
     <t>AON</t>
   </si>
   <si>
-    <t>ADPT</t>
+    <t>AGL</t>
   </si>
   <si>
     <t>AGCO</t>
@@ -280,19 +280,19 @@
     <t>ALGM</t>
   </si>
   <si>
-    <t>BILI</t>
+    <t>BMBL</t>
   </si>
   <si>
     <t>ALV</t>
   </si>
   <si>
-    <t>BJ</t>
+    <t>BRBR</t>
   </si>
   <si>
     <t>APLD</t>
   </si>
   <si>
-    <t>AGL</t>
+    <t>ALC</t>
   </si>
   <si>
     <t>AIR</t>
@@ -313,19 +313,19 @@
     <t>ALIT</t>
   </si>
   <si>
-    <t>BMBL</t>
+    <t>CCOI</t>
   </si>
   <si>
     <t>AMCR</t>
   </si>
   <si>
-    <t>BRBR</t>
+    <t>BTI</t>
   </si>
   <si>
     <t>APO</t>
   </si>
   <si>
-    <t>ALC</t>
+    <t>ALGN</t>
   </si>
   <si>
     <t>AIT</t>
@@ -346,25 +346,25 @@
     <t>ALRM</t>
   </si>
   <si>
-    <t>CCOI</t>
+    <t>CHTR</t>
   </si>
   <si>
     <t>AMZN</t>
   </si>
   <si>
-    <t>BTI</t>
+    <t>BUD</t>
   </si>
   <si>
     <t>ARES</t>
   </si>
   <si>
-    <t>ALGN</t>
+    <t>ALNY</t>
   </si>
   <si>
     <t>ALK</t>
   </si>
   <si>
-    <t>CEQP</t>
+    <t>CHK</t>
   </si>
   <si>
     <t>ASH</t>
@@ -379,25 +379,25 @@
     <t>AMAT</t>
   </si>
   <si>
-    <t>CHTR</t>
+    <t>CMCSA</t>
   </si>
   <si>
     <t>AN</t>
   </si>
   <si>
-    <t>BUD</t>
+    <t>BYND</t>
   </si>
   <si>
     <t>ASB</t>
   </si>
   <si>
-    <t>ALNY</t>
+    <t>AMGN</t>
   </si>
   <si>
     <t>ALLE</t>
   </si>
   <si>
-    <t>CHK</t>
+    <t>CHRD</t>
   </si>
   <si>
     <t>ATR</t>
@@ -412,25 +412,25 @@
     <t>AMD</t>
   </si>
   <si>
-    <t>CMCSA</t>
+    <t>CNK</t>
   </si>
   <si>
     <t>APTV</t>
   </si>
   <si>
-    <t>BYND</t>
+    <t>CAG</t>
   </si>
   <si>
     <t>AXP</t>
   </si>
   <si>
-    <t>AMGN</t>
+    <t>AMLX</t>
   </si>
   <si>
     <t>AME</t>
   </si>
   <si>
-    <t>CHRD</t>
+    <t>CHX</t>
   </si>
   <si>
     <t>AU</t>
@@ -445,25 +445,25 @@
     <t>AMKR</t>
   </si>
   <si>
-    <t>CNK</t>
+    <t>CURI</t>
   </si>
   <si>
     <t>ASO</t>
   </si>
   <si>
-    <t>CAG</t>
+    <t>CALM</t>
   </si>
   <si>
     <t>AXS</t>
   </si>
   <si>
-    <t>AMLX</t>
+    <t>APLS</t>
   </si>
   <si>
     <t>AOS</t>
   </si>
   <si>
-    <t>CHX</t>
+    <t>CIVI</t>
   </si>
   <si>
     <t>AVNT</t>
@@ -478,25 +478,25 @@
     <t>ANET</t>
   </si>
   <si>
-    <t>CURI</t>
+    <t>DASH</t>
   </si>
   <si>
     <t>AVY</t>
   </si>
   <si>
-    <t>CALM</t>
+    <t>CCEP</t>
   </si>
   <si>
     <t>BAC</t>
   </si>
   <si>
-    <t>APLS</t>
+    <t>ARGX</t>
   </si>
   <si>
     <t>APG</t>
   </si>
   <si>
-    <t>CIVI</t>
+    <t>CNQ</t>
   </si>
   <si>
     <t>AVTR</t>
@@ -511,25 +511,25 @@
     <t>ANSS</t>
   </si>
   <si>
-    <t>DASH</t>
+    <t>DIS</t>
   </si>
   <si>
     <t>AZO</t>
   </si>
   <si>
-    <t>CCEP</t>
+    <t>CELH</t>
   </si>
   <si>
     <t>BAM</t>
   </si>
   <si>
-    <t>ARGX</t>
+    <t>ATEC</t>
   </si>
   <si>
     <t>ARMK</t>
   </si>
   <si>
-    <t>CNQ</t>
+    <t>CNX</t>
   </si>
   <si>
     <t>AXTA</t>
@@ -544,25 +544,25 @@
     <t>APH</t>
   </si>
   <si>
-    <t>DIS</t>
+    <t>DISH</t>
   </si>
   <si>
     <t>BALL</t>
   </si>
   <si>
-    <t>CELH</t>
+    <t>CENTA</t>
   </si>
   <si>
     <t>BANC</t>
   </si>
   <si>
-    <t>ATEC</t>
+    <t>AXSM</t>
   </si>
   <si>
     <t>ATI</t>
   </si>
   <si>
-    <t>CNX</t>
+    <t>COP</t>
   </si>
   <si>
     <t>BAK</t>
@@ -577,25 +577,25 @@
     <t>APP</t>
   </si>
   <si>
-    <t>DISH</t>
+    <t>EA</t>
   </si>
   <si>
     <t>BBWI</t>
   </si>
   <si>
-    <t>CENTA</t>
+    <t>CHD</t>
   </si>
   <si>
     <t>BAP</t>
   </si>
   <si>
-    <t>AXSM</t>
+    <t>AZN</t>
   </si>
   <si>
     <t>ATKR</t>
   </si>
   <si>
-    <t>COP</t>
+    <t>CPG</t>
   </si>
   <si>
     <t>BCC</t>
@@ -610,25 +610,25 @@
     <t>ARW</t>
   </si>
   <si>
-    <t>EA</t>
+    <t>EDR</t>
   </si>
   <si>
     <t>BBY</t>
   </si>
   <si>
-    <t>CHD</t>
+    <t>CL</t>
   </si>
   <si>
     <t>BCS</t>
   </si>
   <si>
-    <t>AZN</t>
+    <t>BAX</t>
   </si>
   <si>
     <t>AVAV</t>
   </si>
   <si>
-    <t>CPG</t>
+    <t>CRC</t>
   </si>
   <si>
     <t>BHP</t>
@@ -643,25 +643,25 @@
     <t>ASML</t>
   </si>
   <si>
-    <t>EDR</t>
+    <t>FOX</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>CL</t>
+    <t>CLX</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>BAX</t>
+    <t>BCRX</t>
   </si>
   <si>
     <t>AXON</t>
   </si>
   <si>
-    <t>CRC</t>
+    <t>CRK</t>
   </si>
   <si>
     <t>CC</t>
@@ -676,25 +676,25 @@
     <t>ASX</t>
   </si>
   <si>
-    <t>FOX</t>
+    <t>FVRR</t>
   </si>
   <si>
     <t>BERY</t>
   </si>
   <si>
-    <t>CLX</t>
+    <t>COCO</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>BCRX</t>
+    <t>BDX</t>
   </si>
   <si>
     <t>AYI</t>
   </si>
   <si>
-    <t>CRK</t>
+    <t>CSAN</t>
   </si>
   <si>
     <t>CE</t>
@@ -709,25 +709,25 @@
     <t>AVGO</t>
   </si>
   <si>
-    <t>FVRR</t>
+    <t>FWONA</t>
   </si>
   <si>
     <t>BFAM</t>
   </si>
   <si>
-    <t>COCO</t>
+    <t>COST</t>
   </si>
   <si>
     <t>BKU</t>
   </si>
   <si>
-    <t>BDX</t>
+    <t>BEAM</t>
   </si>
   <si>
     <t>AZEK</t>
   </si>
   <si>
-    <t>CSAN</t>
+    <t>CTRA</t>
   </si>
   <si>
     <t>CENX</t>
@@ -742,25 +742,25 @@
     <t>AZPN</t>
   </si>
   <si>
-    <t>FWONA</t>
+    <t>FYBR</t>
   </si>
   <si>
     <t>BGFV</t>
   </si>
   <si>
-    <t>COST</t>
+    <t>COTY</t>
   </si>
   <si>
     <t>BLK</t>
   </si>
   <si>
-    <t>BEAM</t>
+    <t>BGNE</t>
   </si>
   <si>
     <t>BA</t>
   </si>
   <si>
-    <t>CTRA</t>
+    <t>CVE</t>
   </si>
   <si>
     <t>CF</t>
@@ -775,25 +775,25 @@
     <t>BABA</t>
   </si>
   <si>
-    <t>FYBR</t>
+    <t>GENI</t>
   </si>
   <si>
     <t>BKNG</t>
   </si>
   <si>
-    <t>COTY</t>
+    <t>COUR</t>
   </si>
   <si>
     <t>BMO</t>
   </si>
   <si>
-    <t>BGNE</t>
+    <t>BIIB</t>
   </si>
   <si>
     <t>BAH</t>
   </si>
   <si>
-    <t>CVE</t>
+    <t>CVI</t>
   </si>
   <si>
     <t>CLF</t>
@@ -808,25 +808,25 @@
     <t>BILL</t>
   </si>
   <si>
-    <t>GENI</t>
+    <t>GETY</t>
   </si>
   <si>
     <t>BROS</t>
   </si>
   <si>
-    <t>COUR</t>
+    <t>CPB</t>
   </si>
   <si>
     <t>BN</t>
   </si>
   <si>
-    <t>BIIB</t>
+    <t>BIO</t>
   </si>
   <si>
     <t>BECN</t>
   </si>
   <si>
-    <t>CVI</t>
+    <t>CVX</t>
   </si>
   <si>
     <t>CLW</t>
@@ -838,28 +838,28 @@
     <t>CWK</t>
   </si>
   <si>
-    <t>BKI</t>
-  </si>
-  <si>
-    <t>GETY</t>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>GOGO</t>
   </si>
   <si>
     <t>BURL</t>
   </si>
   <si>
-    <t>CPB</t>
+    <t>CVGW</t>
   </si>
   <si>
     <t>BNS</t>
   </si>
   <si>
-    <t>BIO</t>
+    <t>BMRN</t>
   </si>
   <si>
     <t>BLD</t>
   </si>
   <si>
-    <t>CVX</t>
+    <t>DINO</t>
   </si>
   <si>
     <t>CMC</t>
@@ -871,28 +871,28 @@
     <t>DBRG</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>GOGO</t>
+    <t>BSY</t>
+  </si>
+  <si>
+    <t>GOOG</t>
   </si>
   <si>
     <t>BWA</t>
   </si>
   <si>
-    <t>CVGW</t>
+    <t>DAR</t>
   </si>
   <si>
     <t>BOH</t>
   </si>
   <si>
-    <t>BMRN</t>
+    <t>BMY</t>
   </si>
   <si>
     <t>BLDE</t>
   </si>
   <si>
-    <t>DEN</t>
+    <t>DTM</t>
   </si>
   <si>
     <t>CRH</t>
@@ -904,28 +904,28 @@
     <t>DEA</t>
   </si>
   <si>
-    <t>BSY</t>
-  </si>
-  <si>
-    <t>GOOG</t>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>IAC</t>
   </si>
   <si>
     <t>BYD</t>
   </si>
   <si>
-    <t>DAR</t>
+    <t>DEO</t>
   </si>
   <si>
     <t>BRK-B</t>
   </si>
   <si>
-    <t>BMY</t>
+    <t>BNTX</t>
   </si>
   <si>
     <t>BLDR</t>
   </si>
   <si>
-    <t>DINO</t>
+    <t>DVN</t>
   </si>
   <si>
     <t>CSTM</t>
@@ -937,28 +937,28 @@
     <t>DEI</t>
   </si>
   <si>
-    <t>CACI</t>
-  </si>
-  <si>
-    <t>IAC</t>
+    <t>CCCS</t>
+  </si>
+  <si>
+    <t>IDCC</t>
   </si>
   <si>
     <t>CASY</t>
   </si>
   <si>
-    <t>DEO</t>
+    <t>DG</t>
   </si>
   <si>
     <t>BRO</t>
   </si>
   <si>
-    <t>BNTX</t>
+    <t>BRKR</t>
   </si>
   <si>
     <t>BWXT</t>
   </si>
   <si>
-    <t>DTM</t>
+    <t>E</t>
   </si>
   <si>
     <t>CTVA</t>
@@ -970,28 +970,28 @@
     <t>DLR</t>
   </si>
   <si>
-    <t>CCCS</t>
-  </si>
-  <si>
-    <t>IDCC</t>
+    <t>CDAY</t>
+  </si>
+  <si>
+    <t>IMAX</t>
   </si>
   <si>
     <t>CCK</t>
   </si>
   <si>
-    <t>DG</t>
+    <t>DLTR</t>
   </si>
   <si>
     <t>BX</t>
   </si>
   <si>
-    <t>BRKR</t>
+    <t>BSX</t>
   </si>
   <si>
     <t>BZ</t>
   </si>
   <si>
-    <t>DVN</t>
+    <t>EC</t>
   </si>
   <si>
     <t>CX</t>
@@ -1003,28 +1003,28 @@
     <t>DOC</t>
   </si>
   <si>
-    <t>CDAY</t>
-  </si>
-  <si>
-    <t>IMAX</t>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>IPG</t>
   </si>
   <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>DLTR</t>
+    <t>DNUT</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>BSX</t>
+    <t>CAH</t>
   </si>
   <si>
     <t>CAE</t>
   </si>
   <si>
-    <t>E</t>
+    <t>ENB</t>
   </si>
   <si>
     <t>DD</t>
@@ -1036,28 +1036,28 @@
     <t>DRH</t>
   </si>
   <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>IPG</t>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>IRDM</t>
   </si>
   <si>
     <t>CHDN</t>
   </si>
   <si>
-    <t>DNUT</t>
+    <t>EDU</t>
   </si>
   <si>
     <t>CADE</t>
   </si>
   <si>
-    <t>CAH</t>
+    <t>CDNA</t>
   </si>
   <si>
     <t>CAR</t>
   </si>
   <si>
-    <t>EC</t>
+    <t>ENLC</t>
   </si>
   <si>
     <t>DOW</t>
@@ -1069,28 +1069,28 @@
     <t>ELME</t>
   </si>
   <si>
-    <t>CDW</t>
-  </si>
-  <si>
-    <t>IRDM</t>
+    <t>CFLT</t>
+  </si>
+  <si>
+    <t>KIND</t>
   </si>
   <si>
     <t>CHH</t>
   </si>
   <si>
-    <t>EDU</t>
+    <t>EL</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>CDNA</t>
+    <t>CERS</t>
   </si>
   <si>
     <t>CARR</t>
   </si>
   <si>
-    <t>ENB</t>
+    <t>EOG</t>
   </si>
   <si>
     <t>ECL</t>
@@ -1102,28 +1102,28 @@
     <t>EPR</t>
   </si>
   <si>
-    <t>CFLT</t>
-  </si>
-  <si>
-    <t>KIND</t>
+    <t>CGNX</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
   <si>
     <t>CHPT</t>
   </si>
   <si>
-    <t>EL</t>
+    <t>ELF</t>
   </si>
   <si>
     <t>CB</t>
   </si>
   <si>
-    <t>CERS</t>
+    <t>CI</t>
   </si>
   <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>ENLC</t>
+    <t>EPD</t>
   </si>
   <si>
     <t>EGO</t>
@@ -1135,28 +1135,28 @@
     <t>EQC</t>
   </si>
   <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>KT</t>
+    <t>CHKP</t>
+  </si>
+  <si>
+    <t>LBTYK</t>
   </si>
   <si>
     <t>CHWY</t>
   </si>
   <si>
-    <t>ELF</t>
+    <t>EPC</t>
   </si>
   <si>
     <t>CFFN</t>
   </si>
   <si>
-    <t>CI</t>
+    <t>CNC</t>
   </si>
   <si>
     <t>CHRW</t>
   </si>
   <si>
-    <t>EOG</t>
+    <t>EQNR</t>
   </si>
   <si>
     <t>EMN</t>
@@ -1168,28 +1168,28 @@
     <t>EQIX</t>
   </si>
   <si>
-    <t>CHKP</t>
-  </si>
-  <si>
-    <t>LBTYK</t>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>LYV</t>
   </si>
   <si>
     <t>CMG</t>
   </si>
   <si>
-    <t>EPC</t>
+    <t>FIZZ</t>
   </si>
   <si>
     <t>CFG</t>
   </si>
   <si>
-    <t>CNC</t>
+    <t>COO</t>
   </si>
   <si>
     <t>CLH</t>
   </si>
   <si>
-    <t>EPD</t>
+    <t>EQT</t>
   </si>
   <si>
     <t>ESI</t>
@@ -1201,28 +1201,28 @@
     <t>EQR</t>
   </si>
   <si>
-    <t>CIEN</t>
-  </si>
-  <si>
-    <t>LYV</t>
+    <t>CLVT</t>
+  </si>
+  <si>
+    <t>MANU</t>
   </si>
   <si>
     <t>COLM</t>
   </si>
   <si>
-    <t>FIZZ</t>
+    <t>FLO</t>
   </si>
   <si>
     <t>CFR</t>
   </si>
   <si>
-    <t>COO</t>
+    <t>CRL</t>
   </si>
   <si>
     <t>CMI</t>
   </si>
   <si>
-    <t>EQNR</t>
+    <t>ERF</t>
   </si>
   <si>
     <t>EXP</t>
@@ -1234,28 +1234,28 @@
     <t>ESRT</t>
   </si>
   <si>
-    <t>CLVT</t>
-  </si>
-  <si>
-    <t>MANU</t>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
   <si>
     <t>CPNG</t>
   </si>
   <si>
-    <t>FLO</t>
+    <t>GIS</t>
   </si>
   <si>
     <t>CG</t>
   </si>
   <si>
-    <t>CRL</t>
+    <t>CRSP</t>
   </si>
   <si>
     <t>CNHI</t>
   </si>
   <si>
-    <t>EQT</t>
+    <t>ET</t>
   </si>
   <si>
     <t>FCX</t>
@@ -1267,28 +1267,28 @@
     <t>EXR</t>
   </si>
   <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>META</t>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>MGNI</t>
   </si>
   <si>
     <t>CPRI</t>
   </si>
   <si>
-    <t>GIS</t>
+    <t>GO</t>
   </si>
   <si>
     <t>CINF</t>
   </si>
   <si>
-    <t>CRSP</t>
+    <t>CVS</t>
   </si>
   <si>
     <t>CNI</t>
   </si>
   <si>
-    <t>ERF</t>
+    <t>ETRN</t>
   </si>
   <si>
     <t>FMC</t>
@@ -1300,28 +1300,28 @@
     <t>GLPI</t>
   </si>
   <si>
-    <t>CRWD</t>
-  </si>
-  <si>
-    <t>MGNI</t>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>MOMO</t>
   </si>
   <si>
     <t>CPRT</t>
   </si>
   <si>
-    <t>GO</t>
+    <t>HAIN</t>
   </si>
   <si>
     <t>CM</t>
   </si>
   <si>
-    <t>CVS</t>
+    <t>DGX</t>
   </si>
   <si>
     <t>CNM</t>
   </si>
   <si>
-    <t>ET</t>
+    <t>FANG</t>
   </si>
   <si>
     <t>FNV</t>
@@ -1333,28 +1333,28 @@
     <t>GNL</t>
   </si>
   <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>MOMO</t>
+    <t>CTSH</t>
+  </si>
+  <si>
+    <t>MSGS</t>
   </si>
   <si>
     <t>CROX</t>
   </si>
   <si>
-    <t>HAIN</t>
+    <t>HELE</t>
   </si>
   <si>
     <t>CMA</t>
   </si>
   <si>
-    <t>DGX</t>
+    <t>DHR</t>
   </si>
   <si>
     <t>CP</t>
   </si>
   <si>
-    <t>ETRN</t>
+    <t>FRO</t>
   </si>
   <si>
     <t>FUL</t>
@@ -1366,28 +1366,28 @@
     <t>HASI</t>
   </si>
   <si>
-    <t>CTSH</t>
-  </si>
-  <si>
-    <t>MSGS</t>
+    <t>CYBR</t>
+  </si>
+  <si>
+    <t>MTCH</t>
   </si>
   <si>
     <t>CUK</t>
   </si>
   <si>
-    <t>HELE</t>
+    <t>HIMS</t>
   </si>
   <si>
     <t>CME</t>
   </si>
   <si>
-    <t>DHR</t>
+    <t>DNA</t>
   </si>
   <si>
     <t>CPA</t>
   </si>
   <si>
-    <t>FANG</t>
+    <t>FTI</t>
   </si>
   <si>
     <t>GDX</t>
@@ -1399,28 +1399,28 @@
     <t>HIW</t>
   </si>
   <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>MTCH</t>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>NFLX</t>
   </si>
   <si>
     <t>CZR</t>
   </si>
   <si>
-    <t>HIMS</t>
+    <t>HLF</t>
   </si>
   <si>
     <t>CNO</t>
   </si>
   <si>
-    <t>DNA</t>
+    <t>DXCM</t>
   </si>
   <si>
     <t>CR</t>
   </si>
   <si>
-    <t>FRO</t>
+    <t>GLNG</t>
   </si>
   <si>
     <t>GFI</t>
@@ -1432,28 +1432,28 @@
     <t>HR</t>
   </si>
   <si>
-    <t>DBX</t>
-  </si>
-  <si>
-    <t>NFLX</t>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>NTES</t>
   </si>
   <si>
     <t>DDS</t>
   </si>
   <si>
-    <t>HLF</t>
+    <t>HRL</t>
   </si>
   <si>
     <t>COF</t>
   </si>
   <si>
-    <t>DXCM</t>
+    <t>EDIT</t>
   </si>
   <si>
     <t>CSL</t>
   </si>
   <si>
-    <t>FTI</t>
+    <t>HAL</t>
   </si>
   <si>
     <t>GLD</t>
@@ -1465,28 +1465,28 @@
     <t>HST</t>
   </si>
   <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>NTES</t>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>NWS</t>
   </si>
   <si>
     <t>DECK</t>
   </si>
   <si>
-    <t>HRL</t>
+    <t>HSY</t>
   </si>
   <si>
     <t>COIN</t>
   </si>
   <si>
-    <t>EDIT</t>
+    <t>ELV</t>
   </si>
   <si>
     <t>CSX</t>
   </si>
   <si>
-    <t>GLNG</t>
+    <t>HES</t>
   </si>
   <si>
     <t>GOLD</t>
@@ -1498,28 +1498,28 @@
     <t>INVH</t>
   </si>
   <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>NWS</t>
+    <t>DOCN</t>
+  </si>
+  <si>
+    <t>NXST</t>
   </si>
   <si>
     <t>DHI</t>
   </si>
   <si>
-    <t>HSY</t>
+    <t>INGR</t>
   </si>
   <si>
     <t>COLB</t>
   </si>
   <si>
-    <t>ELV</t>
+    <t>EMBC</t>
   </si>
   <si>
     <t>CTAS</t>
   </si>
   <si>
-    <t>HAL</t>
+    <t>HESM</t>
   </si>
   <si>
     <t>HL</t>
@@ -1531,28 +1531,28 @@
     <t>IRM</t>
   </si>
   <si>
-    <t>DOCN</t>
-  </si>
-  <si>
-    <t>NXST</t>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>NYT</t>
   </si>
   <si>
     <t>DKNG</t>
   </si>
   <si>
-    <t>INGR</t>
+    <t>IPAR</t>
   </si>
   <si>
     <t>CRBG</t>
   </si>
   <si>
-    <t>EMBC</t>
+    <t>EW</t>
   </si>
   <si>
     <t>CWST</t>
   </si>
   <si>
-    <t>HES</t>
+    <t>HP</t>
   </si>
   <si>
     <t>HUN</t>
@@ -1564,28 +1564,28 @@
     <t>IRT</t>
   </si>
   <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>NYT</t>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>OMC</t>
   </si>
   <si>
     <t>DKS</t>
   </si>
   <si>
-    <t>IPAR</t>
+    <t>JJSF</t>
   </si>
   <si>
     <t>CVBF</t>
   </si>
   <si>
-    <t>EW</t>
+    <t>EXAS</t>
   </si>
   <si>
     <t>CXT</t>
   </si>
   <si>
-    <t>HESM</t>
+    <t>IEP</t>
   </si>
   <si>
     <t>ICL</t>
@@ -1597,28 +1597,28 @@
     <t>JBGS</t>
   </si>
   <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>OMC</t>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>OPRA</t>
   </si>
   <si>
     <t>DORM</t>
   </si>
   <si>
-    <t>JJSF</t>
+    <t>K</t>
   </si>
   <si>
     <t>DB</t>
   </si>
   <si>
-    <t>EXAS</t>
+    <t>EXEL</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>HP</t>
+    <t>KMI</t>
   </si>
   <si>
     <t>IFF</t>
@@ -1630,28 +1630,28 @@
     <t>KIM</t>
   </si>
   <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>OPRA</t>
+    <t>DUOL</t>
+  </si>
+  <si>
+    <t>PARA</t>
   </si>
   <si>
     <t>DPZ</t>
   </si>
   <si>
-    <t>K</t>
+    <t>KDP</t>
   </si>
   <si>
     <t>DFS</t>
   </si>
   <si>
-    <t>EXEL</t>
+    <t>FGEN</t>
   </si>
   <si>
     <t>DCI</t>
   </si>
   <si>
-    <t>IEP</t>
+    <t>KOS</t>
   </si>
   <si>
     <t>JHX</t>
@@ -1663,28 +1663,28 @@
     <t>KRC</t>
   </si>
   <si>
-    <t>DUOL</t>
-  </si>
-  <si>
-    <t>PARA</t>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>PERI</t>
   </si>
   <si>
     <t>DRI</t>
   </si>
   <si>
-    <t>KDP</t>
+    <t>KHC</t>
   </si>
   <si>
     <t>DNB</t>
   </si>
   <si>
-    <t>FGEN</t>
+    <t>FMS</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
-    <t>KMI</t>
+    <t>LBRT</t>
   </si>
   <si>
     <t>KGC</t>
@@ -1696,28 +1696,28 @@
     <t>KRG</t>
   </si>
   <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>PERI</t>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>PHI</t>
   </si>
   <si>
     <t>DRVN</t>
   </si>
   <si>
-    <t>KHC</t>
+    <t>KMB</t>
   </si>
   <si>
     <t>EQH</t>
   </si>
   <si>
-    <t>FMS</t>
+    <t>FNA</t>
   </si>
   <si>
     <t>DLB</t>
   </si>
   <si>
-    <t>KOS</t>
+    <t>LNG</t>
   </si>
   <si>
     <t>KWR</t>
@@ -1729,28 +1729,28 @@
     <t>KW</t>
   </si>
   <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PHI</t>
+    <t>ENTG</t>
+  </si>
+  <si>
+    <t>PINS</t>
   </si>
   <si>
     <t>EBAY</t>
   </si>
   <si>
-    <t>KMB</t>
+    <t>KO</t>
   </si>
   <si>
     <t>EWBC</t>
   </si>
   <si>
-    <t>FNA</t>
+    <t>GEHC</t>
   </si>
   <si>
     <t>DOV</t>
   </si>
   <si>
-    <t>LBRT</t>
+    <t>MGY</t>
   </si>
   <si>
     <t>LAC</t>
@@ -1762,28 +1762,28 @@
     <t>LADR</t>
   </si>
   <si>
-    <t>ENTG</t>
-  </si>
-  <si>
-    <t>PINS</t>
+    <t>EPAM</t>
+  </si>
+  <si>
+    <t>PLAY</t>
   </si>
   <si>
     <t>ETSY</t>
   </si>
   <si>
-    <t>KO</t>
+    <t>KR</t>
   </si>
   <si>
     <t>FAF</t>
   </si>
   <si>
-    <t>GEHC</t>
+    <t>GILD</t>
   </si>
   <si>
     <t>DRS</t>
   </si>
   <si>
-    <t>LNG</t>
+    <t>MPC</t>
   </si>
   <si>
     <t>LIN</t>
@@ -1795,28 +1795,28 @@
     <t>LXP</t>
   </si>
   <si>
-    <t>EPAM</t>
-  </si>
-  <si>
-    <t>PLAY</t>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>PLTK</t>
   </si>
   <si>
     <t>EXPE</t>
   </si>
   <si>
-    <t>KR</t>
+    <t>KVUE</t>
   </si>
   <si>
     <t>FBP</t>
   </si>
   <si>
-    <t>GILD</t>
+    <t>GMAB</t>
   </si>
   <si>
     <t>EFX</t>
   </si>
   <si>
-    <t>MGY</t>
+    <t>MPLX</t>
   </si>
   <si>
     <t>LTHM</t>
@@ -1828,28 +1828,28 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>PLTK</t>
+    <t>ESTC</t>
+  </si>
+  <si>
+    <t>RBLX</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>KVUE</t>
+    <t>LANC</t>
   </si>
   <si>
     <t>FCF</t>
   </si>
   <si>
-    <t>GMAB</t>
+    <t>GRWG</t>
   </si>
   <si>
     <t>EME</t>
   </si>
   <si>
-    <t>MMP</t>
+    <t>MRO</t>
   </si>
   <si>
     <t>LYB</t>
@@ -1861,28 +1861,28 @@
     <t>MFA</t>
   </si>
   <si>
-    <t>ESTC</t>
-  </si>
-  <si>
-    <t>RBLX</t>
+    <t>FFIV</t>
+  </si>
+  <si>
+    <t>RCI</t>
   </si>
   <si>
     <t>FIVE</t>
   </si>
   <si>
-    <t>LANC</t>
+    <t>LAUR</t>
   </si>
   <si>
     <t>FFIN</t>
   </si>
   <si>
-    <t>GRWG</t>
+    <t>GSK</t>
   </si>
   <si>
     <t>EMR</t>
   </si>
   <si>
-    <t>MPC</t>
+    <t>MTDR</t>
   </si>
   <si>
     <t>MATV</t>
@@ -1894,28 +1894,28 @@
     <t>MPW</t>
   </si>
   <si>
-    <t>FFIV</t>
-  </si>
-  <si>
-    <t>RCI</t>
+    <t>FICO</t>
+  </si>
+  <si>
+    <t>ROKU</t>
   </si>
   <si>
     <t>FL</t>
   </si>
   <si>
-    <t>LAUR</t>
+    <t>LOCL</t>
   </si>
   <si>
     <t>FHB</t>
   </si>
   <si>
-    <t>GSK</t>
+    <t>HCA</t>
   </si>
   <si>
     <t>ETN</t>
   </si>
   <si>
-    <t>MPLX</t>
+    <t>MUR</t>
   </si>
   <si>
     <t>MEOH</t>
@@ -1927,28 +1927,28 @@
     <t>NLY</t>
   </si>
   <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>ROKU</t>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>SBGI</t>
   </si>
   <si>
     <t>FND</t>
   </si>
   <si>
-    <t>LOCL</t>
+    <t>LOPE</t>
   </si>
   <si>
     <t>FHI</t>
   </si>
   <si>
-    <t>HCA</t>
+    <t>HLN</t>
   </si>
   <si>
     <t>EXPD</t>
   </si>
   <si>
-    <t>MRO</t>
+    <t>NE</t>
   </si>
   <si>
     <t>MERC</t>
@@ -1960,28 +1960,28 @@
     <t>NMRK</t>
   </si>
   <si>
-    <t>FIS</t>
-  </si>
-  <si>
-    <t>SBGI</t>
+    <t>FIVN</t>
+  </si>
+  <si>
+    <t>SEAT</t>
   </si>
   <si>
     <t>FOXF</t>
   </si>
   <si>
-    <t>LOPE</t>
+    <t>LSF</t>
   </si>
   <si>
     <t>FHN</t>
   </si>
   <si>
-    <t>HLN</t>
+    <t>HOLX</t>
   </si>
   <si>
     <t>EXPO</t>
   </si>
   <si>
-    <t>MTDR</t>
+    <t>NFG</t>
   </si>
   <si>
     <t>MLM</t>
@@ -1993,28 +1993,28 @@
     <t>NNN</t>
   </si>
   <si>
-    <t>FIVN</t>
-  </si>
-  <si>
-    <t>SCPL</t>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>SKLZ</t>
   </si>
   <si>
     <t>GEF</t>
   </si>
   <si>
-    <t>LSF</t>
+    <t>LW</t>
   </si>
   <si>
     <t>FITB</t>
   </si>
   <si>
-    <t>HOLX</t>
+    <t>HSIC</t>
   </si>
   <si>
     <t>FAST</t>
   </si>
   <si>
-    <t>MUR</t>
+    <t>NOG</t>
   </si>
   <si>
     <t>MOS</t>
@@ -2026,28 +2026,28 @@
     <t>NSA</t>
   </si>
   <si>
-    <t>FLEX</t>
-  </si>
-  <si>
-    <t>SEAT</t>
+    <t>FLT</t>
+  </si>
+  <si>
+    <t>SKM</t>
   </si>
   <si>
     <t>GIL</t>
   </si>
   <si>
-    <t>LW</t>
+    <t>MDLZ</t>
   </si>
   <si>
     <t>FNB</t>
   </si>
   <si>
-    <t>HSIC</t>
+    <t>HUM</t>
   </si>
   <si>
     <t>FBIN</t>
   </si>
   <si>
-    <t>NE</t>
+    <t>NOV</t>
   </si>
   <si>
     <t>MP</t>
@@ -2059,28 +2059,28 @@
     <t>O</t>
   </si>
   <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>SKLZ</t>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>SNAP</t>
   </si>
   <si>
     <t>GLBE</t>
   </si>
   <si>
-    <t>MDLZ</t>
+    <t>MGPI</t>
   </si>
   <si>
     <t>FNF</t>
   </si>
   <si>
-    <t>HUM</t>
+    <t>ICLR</t>
   </si>
   <si>
     <t>FDX</t>
   </si>
   <si>
-    <t>NFG</t>
+    <t>OKE</t>
   </si>
   <si>
     <t>MT</t>
@@ -2089,31 +2089,31 @@
     <t>SO</t>
   </si>
   <si>
-    <t>OFC</t>
-  </si>
-  <si>
-    <t>FOUR</t>
-  </si>
-  <si>
-    <t>SKM</t>
+    <t>OHI</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>SPHR</t>
   </si>
   <si>
     <t>GM</t>
   </si>
   <si>
-    <t>MGPI</t>
+    <t>MKC</t>
   </si>
   <si>
     <t>FSK</t>
   </si>
   <si>
-    <t>HZNP</t>
+    <t>IDXX</t>
   </si>
   <si>
     <t>FERG</t>
   </si>
   <si>
-    <t>NOG</t>
+    <t>OVV</t>
   </si>
   <si>
     <t>NEM</t>
@@ -2122,31 +2122,31 @@
     <t>SR</t>
   </si>
   <si>
-    <t>OHI</t>
-  </si>
-  <si>
-    <t>FSLR</t>
-  </si>
-  <si>
-    <t>SNAP</t>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
+    <t>SPOT</t>
   </si>
   <si>
     <t>GME</t>
   </si>
   <si>
-    <t>MKC</t>
+    <t>MNST</t>
   </si>
   <si>
     <t>FULT</t>
   </si>
   <si>
-    <t>ICLR</t>
+    <t>IIPR</t>
   </si>
   <si>
     <t>FIX</t>
   </si>
   <si>
-    <t>NOV</t>
+    <t>OXY</t>
   </si>
   <si>
     <t>NTR</t>
@@ -2155,31 +2155,31 @@
     <t>SRE</t>
   </si>
   <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>FSLY</t>
-  </si>
-  <si>
-    <t>SPHR</t>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>SSP</t>
   </si>
   <si>
     <t>GNTX</t>
   </si>
   <si>
-    <t>MNST</t>
+    <t>MO</t>
   </si>
   <si>
     <t>GBCI</t>
   </si>
   <si>
-    <t>IDXX</t>
+    <t>ILMN</t>
   </si>
   <si>
     <t>FLR</t>
   </si>
   <si>
-    <t>OKE</t>
+    <t>PAA</t>
   </si>
   <si>
     <t>NUE</t>
@@ -2188,31 +2188,31 @@
     <t>SWX</t>
   </si>
   <si>
-    <t>PEAK</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>SPOT</t>
+    <t>PEB</t>
+  </si>
+  <si>
+    <t>FTV</t>
+  </si>
+  <si>
+    <t>STGW</t>
   </si>
   <si>
     <t>GOLF</t>
   </si>
   <si>
-    <t>MO</t>
+    <t>NAPA</t>
   </si>
   <si>
     <t>GDOT</t>
   </si>
   <si>
-    <t>IIPR</t>
+    <t>INCY</t>
   </si>
   <si>
     <t>FLS</t>
   </si>
   <si>
-    <t>OVV</t>
+    <t>PAGP</t>
   </si>
   <si>
     <t>OLN</t>
@@ -2221,31 +2221,31 @@
     <t>TAC</t>
   </si>
   <si>
-    <t>PEB</t>
-  </si>
-  <si>
-    <t>FTV</t>
-  </si>
-  <si>
-    <t>SSP</t>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>GOOS</t>
   </si>
   <si>
-    <t>NAPA</t>
+    <t>NOMD</t>
   </si>
   <si>
     <t>GNW</t>
   </si>
   <si>
-    <t>ILMN</t>
+    <t>INSP</t>
   </si>
   <si>
     <t>GD</t>
   </si>
   <si>
-    <t>OXY</t>
+    <t>PBA</t>
   </si>
   <si>
     <t>OR</t>
@@ -2254,31 +2254,31 @@
     <t>UGI</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>STGW</t>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>GDDY</t>
+  </si>
+  <si>
+    <t>TDS</t>
   </si>
   <si>
     <t>GPC</t>
   </si>
   <si>
-    <t>NOMD</t>
+    <t>NTCO</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
-    <t>INCY</t>
+    <t>IQV</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>PAA</t>
+    <t>PBF</t>
   </si>
   <si>
     <t>PAAS</t>
@@ -2287,31 +2287,31 @@
     <t>VST</t>
   </si>
   <si>
-    <t>PLD</t>
-  </si>
-  <si>
-    <t>GDDY</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>TGNA</t>
   </si>
   <si>
     <t>GPI</t>
   </si>
   <si>
-    <t>NTCO</t>
+    <t>NUS</t>
   </si>
   <si>
     <t>HBAN</t>
   </si>
   <si>
-    <t>INSP</t>
+    <t>IRWD</t>
   </si>
   <si>
     <t>GFL</t>
   </si>
   <si>
-    <t>PAGP</t>
+    <t>PBR</t>
   </si>
   <si>
     <t>PKX</t>
@@ -2320,31 +2320,31 @@
     <t>WEC</t>
   </si>
   <si>
-    <t>PSA</t>
-  </si>
-  <si>
-    <t>GEN</t>
-  </si>
-  <si>
-    <t>TDS</t>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>GFS</t>
+  </si>
+  <si>
+    <t>TIGO</t>
   </si>
   <si>
     <t>GPK</t>
   </si>
   <si>
-    <t>NUS</t>
+    <t>NWL</t>
   </si>
   <si>
     <t>HDB</t>
   </si>
   <si>
-    <t>IQV</t>
+    <t>ISRG</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>PBA</t>
+    <t>PR</t>
   </si>
   <si>
     <t>PLL</t>
@@ -2353,31 +2353,31 @@
     <t>WTRG</t>
   </si>
   <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>GFS</t>
-  </si>
-  <si>
-    <t>TGNA</t>
+    <t>RDFN</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>TME</t>
   </si>
   <si>
     <t>GPS</t>
   </si>
   <si>
-    <t>NWL</t>
+    <t>OTLY</t>
   </si>
   <si>
     <t>HIG</t>
   </si>
   <si>
-    <t>IRWD</t>
+    <t>JAZZ</t>
   </si>
   <si>
     <t>GNRC</t>
   </si>
   <si>
-    <t>PBF</t>
+    <t>PSX</t>
   </si>
   <si>
     <t>PPG</t>
@@ -2386,31 +2386,31 @@
     <t>XEL</t>
   </si>
   <si>
-    <t>RDFN</t>
-  </si>
-  <si>
-    <t>GIB</t>
-  </si>
-  <si>
-    <t>TIGO</t>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>GLOB</t>
+  </si>
+  <si>
+    <t>TMUS</t>
   </si>
   <si>
     <t>GT</t>
   </si>
   <si>
-    <t>OTLY</t>
+    <t>PEP</t>
   </si>
   <si>
     <t>HOMB</t>
   </si>
   <si>
-    <t>ISRG</t>
+    <t>JNJ</t>
   </si>
   <si>
     <t>GPN</t>
   </si>
   <si>
-    <t>PBR</t>
+    <t>PTEN</t>
   </si>
   <si>
     <t>RGLD</t>
@@ -2419,796 +2419,781 @@
     <t>YORW</t>
   </si>
   <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>GLOB</t>
-  </si>
-  <si>
-    <t>TME</t>
+    <t>REXR</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>TTD</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>PEP</t>
+    <t>PFGC</t>
   </si>
   <si>
     <t>HOPE</t>
   </si>
   <si>
-    <t>JAZZ</t>
+    <t>LEGN</t>
   </si>
   <si>
     <t>GTES</t>
   </si>
   <si>
-    <t>PDCE</t>
+    <t>PXD</t>
   </si>
   <si>
     <t>RIO</t>
   </si>
   <si>
-    <t>REXR</t>
-  </si>
-  <si>
-    <t>GLW</t>
-  </si>
-  <si>
-    <t>TMUS</t>
+    <t>RITM</t>
+  </si>
+  <si>
+    <t>GRMN</t>
+  </si>
+  <si>
+    <t>TTWO</t>
   </si>
   <si>
     <t>HAS</t>
   </si>
   <si>
-    <t>PFGC</t>
+    <t>PG</t>
   </si>
   <si>
     <t>HSBC</t>
   </si>
   <si>
-    <t>JNJ</t>
+    <t>LH</t>
   </si>
   <si>
     <t>GTLS</t>
   </si>
   <si>
-    <t>PR</t>
+    <t>RIG</t>
   </si>
   <si>
     <t>RPM</t>
   </si>
   <si>
-    <t>RITM</t>
-  </si>
-  <si>
-    <t>GRMN</t>
-  </si>
-  <si>
-    <t>TTD</t>
+    <t>RLJ</t>
+  </si>
+  <si>
+    <t>GTLB</t>
+  </si>
+  <si>
+    <t>TWLO</t>
   </si>
   <si>
     <t>HD</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>PM</t>
   </si>
   <si>
     <t>HTGC</t>
   </si>
   <si>
-    <t>LEGN</t>
+    <t>LLY</t>
   </si>
   <si>
     <t>GWW</t>
   </si>
   <si>
-    <t>PSX</t>
+    <t>RRC</t>
   </si>
   <si>
     <t>RS</t>
   </si>
   <si>
-    <t>RLJ</t>
-  </si>
-  <si>
-    <t>GTLB</t>
-  </si>
-  <si>
-    <t>TTWO</t>
+    <t>RMAX</t>
+  </si>
+  <si>
+    <t>GWRE</t>
+  </si>
+  <si>
+    <t>VMEO</t>
   </si>
   <si>
     <t>HGV</t>
   </si>
   <si>
-    <t>PM</t>
+    <t>POST</t>
   </si>
   <si>
     <t>HUT</t>
   </si>
   <si>
-    <t>LH</t>
+    <t>MASS</t>
   </si>
   <si>
     <t>GXO</t>
   </si>
   <si>
-    <t>PTEN</t>
+    <t>SLB</t>
   </si>
   <si>
     <t>SBSW</t>
   </si>
   <si>
-    <t>RMAX</t>
-  </si>
-  <si>
-    <t>GWRE</t>
-  </si>
-  <si>
-    <t>TWLO</t>
+    <t>SBAC</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>VOD</t>
   </si>
   <si>
     <t>HIBB</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>PPC</t>
   </si>
   <si>
     <t>IBKR</t>
   </si>
   <si>
-    <t>LLY</t>
+    <t>MCK</t>
   </si>
   <si>
     <t>HEI</t>
   </si>
   <si>
-    <t>PXD</t>
+    <t>SM</t>
   </si>
   <si>
     <t>SCCO</t>
   </si>
   <si>
-    <t>SBAC</t>
-  </si>
-  <si>
-    <t>HCP</t>
-  </si>
-  <si>
-    <t>VMEO</t>
+    <t>SBRA</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>VZ</t>
   </si>
   <si>
     <t>HLT</t>
   </si>
   <si>
-    <t>PPC</t>
+    <t>PSMT</t>
   </si>
   <si>
     <t>IBN</t>
   </si>
   <si>
-    <t>MASS</t>
+    <t>MDT</t>
   </si>
   <si>
     <t>HI</t>
   </si>
   <si>
-    <t>RIG</t>
+    <t>STNG</t>
   </si>
   <si>
     <t>SHW</t>
   </si>
   <si>
-    <t>SBRA</t>
-  </si>
-  <si>
-    <t>HOOD</t>
-  </si>
-  <si>
-    <t>VOD</t>
+    <t>SHO</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>WB</t>
   </si>
   <si>
     <t>HMC</t>
   </si>
   <si>
-    <t>PSMT</t>
+    <t>SAM</t>
   </si>
   <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>MCK</t>
+    <t>MOH</t>
   </si>
   <si>
     <t>HII</t>
   </si>
   <si>
-    <t>RRC</t>
+    <t>STR</t>
   </si>
   <si>
     <t>SLI</t>
   </si>
   <si>
-    <t>SHO</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>VZ</t>
+    <t>SITC</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>WBD</t>
   </si>
   <si>
     <t>HOG</t>
   </si>
   <si>
-    <t>SAM</t>
+    <t>SFM</t>
   </si>
   <si>
     <t>ING</t>
   </si>
   <si>
-    <t>MDT</t>
+    <t>MRK</t>
   </si>
   <si>
     <t>HON</t>
   </si>
   <si>
-    <t>SLB</t>
+    <t>SU</t>
   </si>
   <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>SITC</t>
-  </si>
-  <si>
-    <t>HPQ</t>
-  </si>
-  <si>
-    <t>WB</t>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>HUBS</t>
+  </si>
+  <si>
+    <t>WMG</t>
   </si>
   <si>
     <t>HRB</t>
   </si>
   <si>
-    <t>SFM</t>
+    <t>SJM</t>
   </si>
   <si>
     <t>ITUB</t>
   </si>
   <si>
-    <t>MOH</t>
+    <t>MRNA</t>
   </si>
   <si>
     <t>HTZ</t>
   </si>
   <si>
-    <t>SM</t>
+    <t>SUN</t>
   </si>
   <si>
     <t>SMG</t>
   </si>
   <si>
-    <t>SLG</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>WBD</t>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>YELP</t>
   </si>
   <si>
     <t>HTHT</t>
   </si>
   <si>
-    <t>SJM</t>
+    <t>SOVO</t>
   </si>
   <si>
     <t>IVZ</t>
   </si>
   <si>
-    <t>MRK</t>
+    <t>MTD</t>
   </si>
   <si>
     <t>HUBB</t>
   </si>
   <si>
-    <t>STNG</t>
+    <t>SWN</t>
   </si>
   <si>
     <t>SQM</t>
   </si>
   <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>WMG</t>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>YY</t>
   </si>
   <si>
     <t>IGT</t>
   </si>
   <si>
-    <t>SOVO</t>
+    <t>SPB</t>
   </si>
   <si>
     <t>JHG</t>
   </si>
   <si>
-    <t>MRNA</t>
+    <t>MYGN</t>
   </si>
   <si>
     <t>HWM</t>
   </si>
   <si>
-    <t>STR</t>
+    <t>TDW</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>WWE</t>
+    <t>STAG</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>IHG</t>
   </si>
   <si>
-    <t>SPB</t>
+    <t>STZ</t>
   </si>
   <si>
     <t>JPM</t>
   </si>
   <si>
-    <t>MTD</t>
+    <t>NBIX</t>
   </si>
   <si>
     <t>HXL</t>
   </si>
   <si>
-    <t>SU</t>
+    <t>TPL</t>
   </si>
   <si>
     <t>SSRM</t>
   </si>
   <si>
-    <t>STAG</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>YELP</t>
+    <t>STWD</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>ZD</t>
   </si>
   <si>
     <t>IP</t>
   </si>
   <si>
-    <t>STZ</t>
+    <t>SYY</t>
   </si>
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>MYGN</t>
+    <t>NTLA</t>
   </si>
   <si>
     <t>IEX</t>
   </si>
   <si>
-    <t>SUN</t>
+    <t>TRGP</t>
   </si>
   <si>
     <t>STLD</t>
   </si>
   <si>
-    <t>STWD</t>
-  </si>
-  <si>
-    <t>INTU</t>
-  </si>
-  <si>
-    <t>YY</t>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>IONQ</t>
   </si>
   <si>
     <t>IRBT</t>
   </si>
   <si>
-    <t>SYY</t>
+    <t>TAL</t>
   </si>
   <si>
     <t>KKR</t>
   </si>
   <si>
-    <t>NBIX</t>
+    <t>NVAX</t>
   </si>
   <si>
     <t>IR</t>
   </si>
   <si>
-    <t>SWN</t>
+    <t>TRMD</t>
   </si>
   <si>
     <t>SUM</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>Z</t>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>IOT</t>
   </si>
   <si>
     <t>KBH</t>
   </si>
   <si>
-    <t>TAL</t>
+    <t>TAP</t>
   </si>
   <si>
     <t>LC</t>
   </si>
   <si>
-    <t>NTLA</t>
+    <t>NVO</t>
   </si>
   <si>
     <t>ITT</t>
   </si>
   <si>
-    <t>TDW</t>
+    <t>TRP</t>
   </si>
   <si>
     <t>SUZ</t>
   </si>
   <si>
-    <t>TWO</t>
-  </si>
-  <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>ZD</t>
+    <t>UDR</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
   <si>
     <t>KMX</t>
   </si>
   <si>
-    <t>TAP</t>
+    <t>TGT</t>
   </si>
   <si>
     <t>LMND</t>
   </si>
   <si>
-    <t>NVAX</t>
+    <t>NVS</t>
   </si>
   <si>
     <t>ITW</t>
   </si>
   <si>
-    <t>TPL</t>
+    <t>TS</t>
   </si>
   <si>
     <t>TECK</t>
   </si>
   <si>
-    <t>UDR</t>
-  </si>
-  <si>
-    <t>IT</t>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>JBL</t>
   </si>
   <si>
     <t>KTB</t>
   </si>
   <si>
-    <t>TGT</t>
+    <t>THS</t>
   </si>
   <si>
     <t>LNC</t>
   </si>
   <si>
-    <t>NVO</t>
+    <t>OMI</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>TRGP</t>
+    <t>TSP</t>
   </si>
   <si>
     <t>TFPM</t>
   </si>
   <si>
-    <t>UE</t>
-  </si>
-  <si>
-    <t>JBL</t>
+    <t>VICI</t>
+  </si>
+  <si>
+    <t>JKHY</t>
   </si>
   <si>
     <t>LAD</t>
   </si>
   <si>
-    <t>THS</t>
+    <t>TR</t>
   </si>
   <si>
     <t>LPLA</t>
   </si>
   <si>
-    <t>NVS</t>
+    <t>OSCR</t>
   </si>
   <si>
     <t>JBHT</t>
   </si>
   <si>
-    <t>TRMD</t>
+    <t>TTE</t>
   </si>
   <si>
     <t>TROX</t>
   </si>
   <si>
-    <t>VICI</t>
-  </si>
-  <si>
-    <t>JKHY</t>
+    <t>VNO</t>
+  </si>
+  <si>
+    <t>JNPR</t>
   </si>
   <si>
     <t>LCID</t>
   </si>
   <si>
-    <t>TR</t>
+    <t>TSN</t>
   </si>
   <si>
     <t>MA</t>
   </si>
   <si>
-    <t>OMI</t>
+    <t>PACB</t>
   </si>
   <si>
     <t>JBLU</t>
   </si>
   <si>
-    <t>TRP</t>
+    <t>VAL</t>
   </si>
   <si>
     <t>TSE</t>
   </si>
   <si>
-    <t>VNO</t>
-  </si>
-  <si>
-    <t>JNPR</t>
+    <t>VTR</t>
+  </si>
+  <si>
+    <t>KEYS</t>
   </si>
   <si>
     <t>LCII</t>
   </si>
   <si>
-    <t>TSN</t>
+    <t>UDMY</t>
   </si>
   <si>
     <t>MCO</t>
   </si>
   <si>
-    <t>OSCR</t>
+    <t>PCRX</t>
   </si>
   <si>
     <t>JCI</t>
   </si>
   <si>
-    <t>TS</t>
+    <t>VLO</t>
   </si>
   <si>
     <t>UFPI</t>
   </si>
   <si>
-    <t>VTR</t>
-  </si>
-  <si>
-    <t>KEYS</t>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>KLAC</t>
   </si>
   <si>
     <t>LEA</t>
   </si>
   <si>
-    <t>UDMY</t>
+    <t>UL</t>
   </si>
   <si>
     <t>MET</t>
   </si>
   <si>
-    <t>PACB</t>
+    <t>PEN</t>
   </si>
   <si>
     <t>JOBY</t>
   </si>
   <si>
-    <t>TSP</t>
+    <t>VNOM</t>
   </si>
   <si>
     <t>UNVR</t>
   </si>
   <si>
-    <t>WELL</t>
-  </si>
-  <si>
-    <t>KLAC</t>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>LDOS</t>
   </si>
   <si>
     <t>LEG</t>
   </si>
   <si>
-    <t>UL</t>
+    <t>UNFI</t>
   </si>
   <si>
     <t>MFC</t>
   </si>
   <si>
-    <t>PCRX</t>
+    <t>PFE</t>
   </si>
   <si>
     <t>KBR</t>
   </si>
   <si>
-    <t>TTE</t>
+    <t>VVV</t>
   </si>
   <si>
     <t>VALE</t>
   </si>
   <si>
-    <t>WPC</t>
-  </si>
-  <si>
-    <t>LDOS</t>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>LOGI</t>
   </si>
   <si>
     <t>LEVI</t>
   </si>
   <si>
-    <t>UNFI</t>
+    <t>USFD</t>
   </si>
   <si>
     <t>MKL</t>
   </si>
   <si>
-    <t>PEN</t>
+    <t>PHG</t>
   </si>
   <si>
     <t>KEX</t>
   </si>
   <si>
-    <t>VAL</t>
+    <t>WDS</t>
   </si>
   <si>
     <t>VMC</t>
   </si>
   <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>LOGI</t>
+    <t>LRCX</t>
   </si>
   <si>
     <t>LI</t>
   </si>
   <si>
-    <t>USFD</t>
+    <t>UTZ</t>
   </si>
   <si>
     <t>MMC</t>
   </si>
   <si>
-    <t>PFE</t>
+    <t>PHR</t>
   </si>
   <si>
     <t>KNX</t>
   </si>
   <si>
-    <t>VLO</t>
+    <t>WES</t>
   </si>
   <si>
     <t>WFG</t>
   </si>
   <si>
-    <t>LRCX</t>
+    <t>LSCC</t>
   </si>
   <si>
     <t>LKQ</t>
   </si>
   <si>
-    <t>UTZ</t>
+    <t>VGR</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>PHG</t>
+    <t>PODD</t>
   </si>
   <si>
     <t>KTOS</t>
   </si>
   <si>
-    <t>VNOM</t>
+    <t>WFRD</t>
   </si>
   <si>
     <t>WLK</t>
   </si>
   <si>
-    <t>LSCC</t>
+    <t>MANH</t>
   </si>
   <si>
     <t>LNW</t>
   </si>
   <si>
-    <t>VGR</t>
+    <t>VWE</t>
   </si>
   <si>
     <t>MTB</t>
   </si>
   <si>
-    <t>PHR</t>
+    <t>QGEN</t>
   </si>
   <si>
     <t>LECO</t>
   </si>
   <si>
-    <t>VVV</t>
+    <t>WHD</t>
   </si>
   <si>
     <t>WPM</t>
   </si>
   <si>
-    <t>MANH</t>
+    <t>MCHP</t>
   </si>
   <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>VWE</t>
+    <t>WMT</t>
   </si>
   <si>
     <t>MTG</t>
   </si>
   <si>
-    <t>PODD</t>
+    <t>QSI</t>
   </si>
   <si>
     <t>LGIH</t>
   </si>
   <si>
-    <t>WDS</t>
+    <t>WMB</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>MCHP</t>
+    <t>MKSI</t>
   </si>
   <si>
     <t>LTH</t>
   </si>
   <si>
-    <t>WMT</t>
-  </si>
-  <si>
     <t>MUFG</t>
   </si>
   <si>
-    <t>QGEN</t>
+    <t>RDY</t>
   </si>
   <si>
     <t>LHX</t>
   </si>
   <si>
-    <t>WES</t>
-  </si>
-  <si>
-    <t>MKSI</t>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>MNDY</t>
   </si>
   <si>
     <t>LULU</t>
@@ -3217,16 +3202,16 @@
     <t>NDAQ</t>
   </si>
   <si>
-    <t>QSI</t>
+    <t>REGN</t>
   </si>
   <si>
     <t>LII</t>
   </si>
   <si>
-    <t>WFRD</t>
-  </si>
-  <si>
-    <t>MNDY</t>
+    <t>YPF</t>
+  </si>
+  <si>
+    <t>MPWR</t>
   </si>
   <si>
     <t>LVS</t>
@@ -3235,16 +3220,13 @@
     <t>NTRS</t>
   </si>
   <si>
-    <t>RDY</t>
+    <t>RMD</t>
   </si>
   <si>
     <t>LMT</t>
   </si>
   <si>
-    <t>WHD</t>
-  </si>
-  <si>
-    <t>MPWR</t>
+    <t>MRVL</t>
   </si>
   <si>
     <t>M</t>
@@ -3253,16 +3235,13 @@
     <t>NU</t>
   </si>
   <si>
-    <t>REGN</t>
+    <t>RPRX</t>
   </si>
   <si>
     <t>LPX</t>
   </si>
   <si>
-    <t>WMB</t>
-  </si>
-  <si>
-    <t>MRVL</t>
+    <t>MSFT</t>
   </si>
   <si>
     <t>MAR</t>
@@ -3271,16 +3250,13 @@
     <t>NWG</t>
   </si>
   <si>
-    <t>RMD</t>
+    <t>RVTY</t>
   </si>
   <si>
     <t>LSTR</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>MSFT</t>
+    <t>MSI</t>
   </si>
   <si>
     <t>MAT</t>
@@ -3289,16 +3265,13 @@
     <t>NYCB</t>
   </si>
   <si>
-    <t>RPRX</t>
+    <t>SDGR</t>
   </si>
   <si>
     <t>LUV</t>
   </si>
   <si>
-    <t>YPF</t>
-  </si>
-  <si>
-    <t>MSI</t>
+    <t>MTLS</t>
   </si>
   <si>
     <t>MBLY</t>
@@ -3307,964 +3280,937 @@
     <t>ONB</t>
   </si>
   <si>
-    <t>RVTY</t>
+    <t>SGEN</t>
   </si>
   <si>
     <t>MAN</t>
   </si>
   <si>
-    <t>MTLS</t>
+    <t>MU</t>
   </si>
   <si>
     <t>MCD</t>
   </si>
   <si>
-    <t>ORCC</t>
-  </si>
-  <si>
-    <t>SDGR</t>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>SLGC</t>
   </si>
   <si>
     <t>MAS</t>
   </si>
   <si>
-    <t>MU</t>
+    <t>NET</t>
   </si>
   <si>
     <t>MDC</t>
   </si>
   <si>
-    <t>ORI</t>
-  </si>
-  <si>
-    <t>SGEN</t>
+    <t>OWL</t>
+  </si>
+  <si>
+    <t>SNN</t>
   </si>
   <si>
     <t>MDU</t>
   </si>
   <si>
-    <t>NATI</t>
+    <t>NICE</t>
   </si>
   <si>
     <t>MELI</t>
   </si>
   <si>
-    <t>OWL</t>
-  </si>
-  <si>
-    <t>SLGC</t>
+    <t>OZK</t>
+  </si>
+  <si>
+    <t>SNY</t>
   </si>
   <si>
     <t>MIDD</t>
   </si>
   <si>
-    <t>NET</t>
+    <t>NOVT</t>
   </si>
   <si>
     <t>MGA</t>
   </si>
   <si>
-    <t>OZK</t>
-  </si>
-  <si>
-    <t>SNN</t>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>SRPT</t>
   </si>
   <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>NEWR</t>
+    <t>NOW</t>
   </si>
   <si>
     <t>MGM</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>SNY</t>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>STE</t>
   </si>
   <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>NICE</t>
+    <t>NTAP</t>
   </si>
   <si>
     <t>MHK</t>
   </si>
   <si>
-    <t>PFG</t>
-  </si>
-  <si>
-    <t>SRPT</t>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>SWAV</t>
   </si>
   <si>
     <t>MMS</t>
   </si>
   <si>
-    <t>NOVT</t>
+    <t>NTNX</t>
   </si>
   <si>
     <t>MLCO</t>
   </si>
   <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>STE</t>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>SWTX</t>
   </si>
   <si>
     <t>MSM</t>
   </si>
   <si>
-    <t>NOW</t>
+    <t>NVDA</t>
   </si>
   <si>
     <t>MMYT</t>
   </si>
   <si>
-    <t>PNC</t>
-  </si>
-  <si>
-    <t>SWAV</t>
+    <t>PRU</t>
+  </si>
+  <si>
+    <t>SYK</t>
   </si>
   <si>
     <t>MTZ</t>
   </si>
   <si>
-    <t>NTAP</t>
+    <t>NXPI</t>
   </si>
   <si>
     <t>MNSO</t>
   </si>
   <si>
-    <t>PRU</t>
-  </si>
-  <si>
-    <t>SWTX</t>
+    <t>PSEC</t>
+  </si>
+  <si>
+    <t>TAK</t>
   </si>
   <si>
     <t>NDSN</t>
   </si>
   <si>
-    <t>NTNX</t>
+    <t>NXT</t>
   </si>
   <si>
     <t>MODG</t>
   </si>
   <si>
-    <t>PSEC</t>
-  </si>
-  <si>
-    <t>SYK</t>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>TDOC</t>
   </si>
   <si>
     <t>NOC</t>
   </si>
   <si>
-    <t>NVDA</t>
+    <t>OKTA</t>
   </si>
   <si>
     <t>MOV</t>
   </si>
   <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>TAK</t>
+    <t>QFIN</t>
+  </si>
+  <si>
+    <t>TECH</t>
   </si>
   <si>
     <t>NSC</t>
   </si>
   <si>
-    <t>NXPI</t>
+    <t>OLED</t>
   </si>
   <si>
     <t>MTH</t>
   </si>
   <si>
-    <t>QFIN</t>
-  </si>
-  <si>
-    <t>TDOC</t>
+    <t>RDN</t>
+  </si>
+  <si>
+    <t>TEVA</t>
   </si>
   <si>
     <t>NSP</t>
   </si>
   <si>
-    <t>NXT</t>
+    <t>ON</t>
   </si>
   <si>
     <t>MTN</t>
   </si>
   <si>
-    <t>RDN</t>
-  </si>
-  <si>
-    <t>TECH</t>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>TFX</t>
   </si>
   <si>
     <t>NVEE</t>
   </si>
   <si>
-    <t>OKTA</t>
+    <t>ORCL</t>
   </si>
   <si>
     <t>MUSA</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>TEVA</t>
+    <t>RJF</t>
+  </si>
+  <si>
+    <t>TMCI</t>
   </si>
   <si>
     <t>NVT</t>
   </si>
   <si>
-    <t>OLED</t>
+    <t>OTEX</t>
   </si>
   <si>
     <t>MVST</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>TFX</t>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>TMO</t>
   </si>
   <si>
     <t>OC</t>
   </si>
   <si>
-    <t>ON</t>
+    <t>PANW</t>
   </si>
   <si>
     <t>NCLH</t>
   </si>
   <si>
-    <t>RJF</t>
-  </si>
-  <si>
-    <t>TMCI</t>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>TWST</t>
   </si>
   <si>
     <t>ODFL</t>
   </si>
   <si>
-    <t>ORCL</t>
+    <t>PATH</t>
   </si>
   <si>
     <t>NIO</t>
   </si>
   <si>
-    <t>RKT</t>
-  </si>
-  <si>
-    <t>TMO</t>
+    <t>RYAN</t>
+  </si>
+  <si>
+    <t>TXG</t>
   </si>
   <si>
     <t>OSK</t>
   </si>
   <si>
-    <t>OTEX</t>
+    <t>PAYC</t>
   </si>
   <si>
     <t>NKE</t>
   </si>
   <si>
-    <t>RY</t>
-  </si>
-  <si>
-    <t>TWST</t>
+    <t>SBCF</t>
+  </si>
+  <si>
+    <t>UHS</t>
   </si>
   <si>
     <t>OTIS</t>
   </si>
   <si>
-    <t>PANW</t>
+    <t>PCOR</t>
   </si>
   <si>
     <t>NLS</t>
   </si>
   <si>
-    <t>RYAN</t>
-  </si>
-  <si>
-    <t>TXG</t>
+    <t>SCHW</t>
+  </si>
+  <si>
+    <t>UNH</t>
   </si>
   <si>
     <t>PAYX</t>
   </si>
   <si>
-    <t>PATH</t>
+    <t>PCTY</t>
   </si>
   <si>
     <t>OI</t>
   </si>
   <si>
-    <t>SBCF</t>
-  </si>
-  <si>
-    <t>UHS</t>
+    <t>SFNC</t>
+  </si>
+  <si>
+    <t>UTHR</t>
   </si>
   <si>
     <t>PCAR</t>
   </si>
   <si>
-    <t>PAYC</t>
+    <t>PD</t>
   </si>
   <si>
     <t>ONON</t>
   </si>
   <si>
-    <t>SCHW</t>
-  </si>
-  <si>
-    <t>UNH</t>
+    <t>SIGI</t>
+  </si>
+  <si>
+    <t>VCYT</t>
   </si>
   <si>
     <t>PH</t>
   </si>
   <si>
-    <t>PCOR</t>
+    <t>PDD</t>
   </si>
   <si>
     <t>ORLY</t>
   </si>
   <si>
-    <t>SFNC</t>
-  </si>
-  <si>
-    <t>UTHR</t>
+    <t>SLF</t>
+  </si>
+  <si>
+    <t>VEEV</t>
   </si>
   <si>
     <t>PLUG</t>
   </si>
   <si>
-    <t>PCTY</t>
+    <t>PLTR</t>
   </si>
   <si>
     <t>PAG</t>
   </si>
   <si>
-    <t>SIGI</t>
-  </si>
-  <si>
-    <t>VCYT</t>
+    <t>SLM</t>
+  </si>
+  <si>
+    <t>VRTX</t>
   </si>
   <si>
     <t>PNR</t>
   </si>
   <si>
-    <t>PD</t>
+    <t>PSTG</t>
   </si>
   <si>
     <t>PENN</t>
   </si>
   <si>
-    <t>SLF</t>
-  </si>
-  <si>
-    <t>VEEV</t>
+    <t>SMFG</t>
+  </si>
+  <si>
+    <t>VTRS</t>
   </si>
   <si>
     <t>POOL</t>
   </si>
   <si>
-    <t>PDD</t>
+    <t>PTC</t>
   </si>
   <si>
     <t>PHM</t>
   </si>
   <si>
-    <t>SLM</t>
-  </si>
-  <si>
-    <t>VRTX</t>
+    <t>SNV</t>
+  </si>
+  <si>
+    <t>WAT</t>
   </si>
   <si>
     <t>PWR</t>
   </si>
   <si>
-    <t>PLTR</t>
+    <t>QCOM</t>
   </si>
   <si>
     <t>PII</t>
   </si>
   <si>
-    <t>SMFG</t>
-  </si>
-  <si>
-    <t>VTRS</t>
+    <t>SOFI</t>
+  </si>
+  <si>
+    <t>WBA</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>PSTG</t>
+    <t>QRVO</t>
   </si>
   <si>
     <t>PKG</t>
   </si>
   <si>
-    <t>SNV</t>
-  </si>
-  <si>
-    <t>WAT</t>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>WST</t>
   </si>
   <si>
     <t>RBA</t>
   </si>
   <si>
-    <t>PTC</t>
+    <t>RMBS</t>
   </si>
   <si>
     <t>PLNT</t>
   </si>
   <si>
-    <t>SOFI</t>
-  </si>
-  <si>
-    <t>WBA</t>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>ZBH</t>
   </si>
   <si>
     <t>RELX</t>
   </si>
   <si>
-    <t>QCOM</t>
+    <t>S</t>
   </si>
   <si>
     <t>PTON</t>
   </si>
   <si>
-    <t>SPGI</t>
-  </si>
-  <si>
-    <t>WST</t>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>ZTS</t>
   </si>
   <si>
     <t>RHI</t>
   </si>
   <si>
-    <t>QRVO</t>
+    <t>SAP</t>
   </si>
   <si>
     <t>PVH</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>ZBH</t>
+    <t>TD</t>
   </si>
   <si>
     <t>ROK</t>
   </si>
   <si>
-    <t>RMBS</t>
+    <t>SEDG</t>
   </si>
   <si>
     <t>QSR</t>
   </si>
   <si>
-    <t>SYF</t>
-  </si>
-  <si>
-    <t>ZTS</t>
+    <t>TFC</t>
   </si>
   <si>
     <t>RRX</t>
   </si>
   <si>
-    <t>S</t>
+    <t>SHOP</t>
   </si>
   <si>
     <t>RACE</t>
   </si>
   <si>
-    <t>TD</t>
+    <t>TRUP</t>
   </si>
   <si>
     <t>RSG</t>
   </si>
   <si>
-    <t>SAP</t>
+    <t>SLAB</t>
   </si>
   <si>
     <t>RCL</t>
   </si>
   <si>
-    <t>TFC</t>
+    <t>TRV</t>
   </si>
   <si>
     <t>RTO</t>
   </si>
   <si>
-    <t>SEDG</t>
+    <t>SMAR</t>
   </si>
   <si>
     <t>REAL</t>
   </si>
   <si>
-    <t>TRUP</t>
+    <t>UBS</t>
   </si>
   <si>
     <t>RTX</t>
   </si>
   <si>
-    <t>SHOP</t>
+    <t>SMCI</t>
   </si>
   <si>
     <t>REYN</t>
   </si>
   <si>
-    <t>TRV</t>
+    <t>UBSI</t>
   </si>
   <si>
     <t>RYAAY</t>
   </si>
   <si>
-    <t>SLAB</t>
+    <t>SNOW</t>
   </si>
   <si>
     <t>RH</t>
   </si>
   <si>
-    <t>UBS</t>
+    <t>UNM</t>
   </si>
   <si>
     <t>SAIA</t>
   </si>
   <si>
-    <t>SMAR</t>
+    <t>SNPS</t>
   </si>
   <si>
     <t>RIVN</t>
   </si>
   <si>
-    <t>UBSI</t>
+    <t>UPST</t>
   </si>
   <si>
     <t>SAVE</t>
   </si>
   <si>
-    <t>SMCI</t>
+    <t>SNX</t>
   </si>
   <si>
     <t>RL</t>
   </si>
   <si>
-    <t>UNM</t>
+    <t>USB</t>
   </si>
   <si>
     <t>SITE</t>
   </si>
   <si>
-    <t>SNOW</t>
+    <t>SONY</t>
   </si>
   <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>UPST</t>
+    <t>UWMC</t>
   </si>
   <si>
     <t>SNA</t>
   </si>
   <si>
-    <t>SNPS</t>
+    <t>SPLK</t>
   </si>
   <si>
     <t>ROST</t>
   </si>
   <si>
-    <t>USB</t>
+    <t>V</t>
   </si>
   <si>
     <t>SNCY</t>
   </si>
   <si>
-    <t>SNX</t>
+    <t>SQ</t>
   </si>
   <si>
     <t>RRR</t>
   </si>
   <si>
-    <t>UWMC</t>
+    <t>VIRT</t>
   </si>
   <si>
     <t>SNDR</t>
   </si>
   <si>
-    <t>SONY</t>
+    <t>SSNC</t>
   </si>
   <si>
     <t>RUSHA</t>
   </si>
   <si>
-    <t>V</t>
+    <t>VLY</t>
   </si>
   <si>
     <t>SPCE</t>
   </si>
   <si>
-    <t>SPLK</t>
+    <t>SSYS</t>
   </si>
   <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>VIRT</t>
+    <t>VOYA</t>
   </si>
   <si>
     <t>SPR</t>
   </si>
   <si>
-    <t>SQ</t>
+    <t>ST</t>
   </si>
   <si>
     <t>SCI</t>
   </si>
   <si>
-    <t>VLY</t>
+    <t>WAFD</t>
   </si>
   <si>
     <t>SRCL</t>
   </si>
   <si>
-    <t>SSNC</t>
+    <t>STM</t>
   </si>
   <si>
     <t>SE</t>
   </si>
   <si>
-    <t>VOYA</t>
+    <t>WAL</t>
   </si>
   <si>
     <t>STN</t>
   </si>
   <si>
-    <t>SSYS</t>
+    <t>STX</t>
   </si>
   <si>
     <t>SEAS</t>
   </si>
   <si>
-    <t>WAFD</t>
+    <t>WBS</t>
   </si>
   <si>
     <t>SWK</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>SWKS</t>
   </si>
   <si>
     <t>SEE</t>
   </si>
   <si>
-    <t>WAL</t>
+    <t>WFC</t>
   </si>
   <si>
     <t>TDG</t>
   </si>
   <si>
-    <t>STM</t>
+    <t>TDC</t>
   </si>
   <si>
     <t>SFIX</t>
   </si>
   <si>
-    <t>WBS</t>
+    <t>WRB</t>
   </si>
   <si>
     <t>TEX</t>
   </si>
   <si>
-    <t>STX</t>
+    <t>TDY</t>
   </si>
   <si>
     <t>SHAK</t>
   </si>
   <si>
-    <t>WFC</t>
+    <t>WT</t>
   </si>
   <si>
     <t>TFII</t>
   </si>
   <si>
-    <t>SWKS</t>
+    <t>TEAM</t>
   </si>
   <si>
     <t>SIG</t>
   </si>
   <si>
-    <t>WRB</t>
+    <t>WTFC</t>
   </si>
   <si>
     <t>TKR</t>
   </si>
   <si>
-    <t>TDC</t>
+    <t>TEL</t>
   </si>
   <si>
     <t>SKX</t>
   </si>
   <si>
-    <t>WT</t>
+    <t>WU</t>
   </si>
   <si>
     <t>TNET</t>
   </si>
   <si>
-    <t>TDY</t>
+    <t>TENB</t>
   </si>
   <si>
     <t>SKY</t>
   </si>
   <si>
-    <t>WTFC</t>
+    <t>XP</t>
   </si>
   <si>
     <t>TREX</t>
   </si>
   <si>
-    <t>TEAM</t>
+    <t>TER</t>
   </si>
   <si>
     <t>SLGN</t>
   </si>
   <si>
-    <t>WU</t>
+    <t>ZION</t>
   </si>
   <si>
     <t>TRI</t>
   </si>
   <si>
-    <t>TEL</t>
+    <t>TOST</t>
   </si>
   <si>
     <t>SNBR</t>
   </si>
   <si>
-    <t>XP</t>
-  </si>
-  <si>
-    <t>TRTN</t>
-  </si>
-  <si>
-    <t>TENB</t>
+    <t>TRU</t>
+  </si>
+  <si>
+    <t>TRMB</t>
   </si>
   <si>
     <t>SON</t>
   </si>
   <si>
-    <t>ZION</t>
-  </si>
-  <si>
-    <t>TRU</t>
-  </si>
-  <si>
-    <t>TER</t>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TSM</t>
   </si>
   <si>
     <t>STLA</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TOST</t>
+    <t>TTC</t>
+  </si>
+  <si>
+    <t>TXN</t>
   </si>
   <si>
     <t>TCOM</t>
   </si>
   <si>
-    <t>TTC</t>
-  </si>
-  <si>
-    <t>TRMB</t>
+    <t>TTEK</t>
+  </si>
+  <si>
+    <t>TYL</t>
   </si>
   <si>
     <t>THO</t>
   </si>
   <si>
-    <t>TTEK</t>
-  </si>
-  <si>
-    <t>TSM</t>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>TJX</t>
   </si>
   <si>
-    <t>TXT</t>
-  </si>
-  <si>
-    <t>TXN</t>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>UBER</t>
   </si>
   <si>
     <t>TMHC</t>
   </si>
   <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>TYL</t>
+    <t>UHAL</t>
+  </si>
+  <si>
+    <t>UMC</t>
   </si>
   <si>
     <t>TNL</t>
   </si>
   <si>
-    <t>UHAL</t>
-  </si>
-  <si>
-    <t>U</t>
+    <t>ULCC</t>
+  </si>
+  <si>
+    <t>VRSN</t>
   </si>
   <si>
     <t>TOL</t>
   </si>
   <si>
-    <t>ULCC</t>
-  </si>
-  <si>
-    <t>UBER</t>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>WDAY</t>
   </si>
   <si>
     <t>TPH</t>
   </si>
   <si>
-    <t>UNP</t>
-  </si>
-  <si>
-    <t>UMC</t>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>WDC</t>
   </si>
   <si>
     <t>TPR</t>
   </si>
   <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>VMW</t>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>WEX</t>
   </si>
   <si>
     <t>TPX</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>VRSN</t>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>WIX</t>
   </si>
   <si>
     <t>TSCO</t>
   </si>
   <si>
-    <t>VRSK</t>
-  </si>
-  <si>
-    <t>WDAY</t>
+    <t>VRT</t>
+  </si>
+  <si>
+    <t>WOLF</t>
   </si>
   <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>VRT</t>
-  </si>
-  <si>
-    <t>WDC</t>
+    <t>WAB</t>
+  </si>
+  <si>
+    <t>YMM</t>
   </si>
   <si>
     <t>TXRH</t>
   </si>
   <si>
-    <t>WAB</t>
-  </si>
-  <si>
-    <t>WEX</t>
+    <t>WCC</t>
+  </si>
+  <si>
+    <t>ZBRA</t>
   </si>
   <si>
     <t>UA</t>
   </si>
   <si>
-    <t>WCC</t>
-  </si>
-  <si>
-    <t>WIX</t>
+    <t>WCN</t>
+  </si>
+  <si>
+    <t>ZI</t>
   </si>
   <si>
     <t>ULTA</t>
   </si>
   <si>
-    <t>WCN</t>
-  </si>
-  <si>
-    <t>WOLF</t>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>ZM</t>
   </si>
   <si>
     <t>VAC</t>
   </si>
   <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>YMM</t>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>ZS</t>
   </si>
   <si>
     <t>VC</t>
   </si>
   <si>
-    <t>WMS</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
+    <t>WSO</t>
   </si>
   <si>
     <t>VFC</t>
   </si>
   <si>
-    <t>WSO</t>
-  </si>
-  <si>
-    <t>ZI</t>
+    <t>WWD</t>
   </si>
   <si>
     <t>VIPS</t>
   </si>
   <si>
-    <t>WWD</t>
-  </si>
-  <si>
-    <t>ZM</t>
+    <t>XPO</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>XPO</t>
-  </si>
-  <si>
-    <t>ZS</t>
+    <t>XYL</t>
   </si>
   <si>
     <t>WEN</t>
   </si>
   <si>
-    <t>XYL</t>
+    <t>ZTO</t>
   </si>
   <si>
     <t>WH</t>
   </si>
   <si>
-    <t>ZTO</t>
+    <t>ZWS</t>
   </si>
   <si>
     <t>WHR</t>
-  </si>
-  <si>
-    <t>ZWS</t>
   </si>
   <si>
     <t>WING</t>
@@ -4749,7 +4695,7 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4798,13 +4744,13 @@
       <c r="C5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -4841,7 +4787,7 @@
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -4853,7 +4799,7 @@
       <c r="E6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4902,7 +4848,7 @@
       <c r="E7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -4939,19 +4885,19 @@
       <c r="A8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4988,7 +4934,7 @@
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -5037,13 +4983,13 @@
       <c r="A10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -5086,13 +5032,13 @@
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -5135,19 +5081,19 @@
       <c r="A12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -5190,13 +5136,13 @@
       <c r="C13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -5233,7 +5179,7 @@
       <c r="A14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5300,7 +5246,7 @@
       <c r="G15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>161</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -5337,7 +5283,7 @@
       <c r="C16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -5349,7 +5295,7 @@
       <c r="G16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>172</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -5380,25 +5326,25 @@
       <c r="A17" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -5429,25 +5375,25 @@
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>192</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>194</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -5478,7 +5424,7 @@
       <c r="A19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -5527,7 +5473,7 @@
       <c r="A20" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -5588,7 +5534,7 @@
       <c r="E21" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>225</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -5625,7 +5571,7 @@
       <c r="A22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5674,7 +5620,7 @@
       <c r="A23" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5686,7 +5632,7 @@
       <c r="E23" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>247</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -5723,7 +5669,7 @@
       <c r="A24" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -5778,7 +5724,7 @@
       <c r="C25" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -5790,7 +5736,7 @@
       <c r="G25" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>271</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -5818,7 +5764,7 @@
       <c r="Y25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -5827,19 +5773,19 @@
       <c r="C26" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>280</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="4" t="s">
         <v>282</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -5870,13 +5816,13 @@
       <c r="A27" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>287</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>289</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -5916,7 +5862,7 @@
       <c r="Y27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -5968,13 +5914,13 @@
       <c r="A29" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>309</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>311</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -6017,7 +5963,7 @@
       <c r="A30" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>320</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -6063,16 +6009,16 @@
       <c r="Y30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>333</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -6115,7 +6061,7 @@
       <c r="A32" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>342</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -6161,7 +6107,7 @@
       <c r="Y32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -6170,7 +6116,7 @@
       <c r="C33" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>355</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -6213,13 +6159,13 @@
       <c r="A34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>364</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>366</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -6259,7 +6205,7 @@
       <c r="Y34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -6308,7 +6254,7 @@
       <c r="Y35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -6357,7 +6303,7 @@
       <c r="Y36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -6406,16 +6352,16 @@
       <c r="Y37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>410</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -6464,7 +6410,7 @@
       <c r="C39" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>421</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -6507,13 +6453,13 @@
       <c r="A40" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>432</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -6553,16 +6499,16 @@
       <c r="Y40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>441</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>443</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -6602,7 +6548,7 @@
       <c r="Y41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -6660,7 +6606,7 @@
       <c r="C43" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>465</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -6700,16 +6646,16 @@
       <c r="Y43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>476</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -6749,16 +6695,16 @@
       <c r="Y44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>485</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>487</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -6798,16 +6744,16 @@
       <c r="Y45" s="8"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>498</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -6850,7 +6796,7 @@
       <c r="A47" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="4" t="s">
         <v>507</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -6896,7 +6842,7 @@
       <c r="Y47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="9" t="s">
         <v>517</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -6945,10 +6891,10 @@
       <c r="Y48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="7" t="s">
         <v>529</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -6994,7 +6940,7 @@
       <c r="Y49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -7003,7 +6949,7 @@
       <c r="C50" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>542</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -7046,7 +6992,7 @@
       <c r="A51" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>551</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -7141,10 +7087,10 @@
       <c r="Y52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>573</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -7193,13 +7139,13 @@
       <c r="A54" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>584</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>586</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -7288,10 +7234,10 @@
       <c r="Y55" s="8"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>606</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -7386,7 +7332,7 @@
       <c r="Y57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>627</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -7395,7 +7341,7 @@
       <c r="C58" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>630</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -7438,13 +7384,13 @@
       <c r="A59" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>639</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>641</v>
       </c>
       <c r="E59" s="6" t="s">
@@ -7484,7 +7430,7 @@
       <c r="Y59" s="8"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="11" t="s">
         <v>649</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -7493,7 +7439,7 @@
       <c r="C60" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="7" t="s">
         <v>652</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -7533,16 +7479,16 @@
       <c r="Y60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="7" t="s">
         <v>661</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>663</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -7591,7 +7537,7 @@
       <c r="C62" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="7" t="s">
         <v>674</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -7640,7 +7586,7 @@
       <c r="C63" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>685</v>
       </c>
       <c r="E63" s="6" t="s">
@@ -7683,7 +7629,7 @@
       <c r="A64" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>694</v>
       </c>
       <c r="C64" s="7" t="s">
@@ -7729,7 +7675,7 @@
       <c r="Y64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="11" t="s">
         <v>704</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -7738,7 +7684,7 @@
       <c r="C65" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>707</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -7778,10 +7724,10 @@
       <c r="Y65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>716</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -7879,13 +7825,13 @@
       <c r="A68" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="7" t="s">
         <v>738</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>740</v>
       </c>
       <c r="E68" s="6" t="s">
@@ -7928,7 +7874,7 @@
       <c r="A69" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>749</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -7977,7 +7923,7 @@
       <c r="A70" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>760</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -8026,7 +7972,7 @@
       <c r="A71" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="10" t="s">
         <v>771</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -8081,7 +8027,7 @@
       <c r="C72" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="7" t="s">
         <v>784</v>
       </c>
       <c r="E72" s="6" t="s">
@@ -8124,7 +8070,7 @@
       <c r="A73" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>793</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -8173,13 +8119,13 @@
       <c r="A74" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="7" t="s">
         <v>804</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>806</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -8226,7 +8172,7 @@
       <c r="C75" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="7" t="s">
         <v>816</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -8267,7 +8213,7 @@
       <c r="A76" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="4" t="s">
         <v>824</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -8320,7 +8266,7 @@
       <c r="C77" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>836</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -8451,7 +8397,7 @@
       <c r="Y79" s="8"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="11" t="s">
         <v>863</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -8460,7 +8406,7 @@
       <c r="C80" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="7" t="s">
         <v>866</v>
       </c>
       <c r="E80" s="6" t="s">
@@ -8544,7 +8490,7 @@
       <c r="Y81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="4" t="s">
         <v>883</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -8591,16 +8537,16 @@
       <c r="Y82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="10" t="s">
         <v>894</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>896</v>
       </c>
       <c r="E83" s="6" t="s">
@@ -8638,10 +8584,10 @@
       <c r="Y83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="10" t="s">
         <v>904</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -8685,7 +8631,7 @@
       <c r="Y84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
         <v>913</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -8694,7 +8640,7 @@
       <c r="C85" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="7" t="s">
         <v>916</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -8735,7 +8681,7 @@
       <c r="A86" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>924</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -8782,33 +8728,31 @@
       <c r="A87" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="4"/>
+      <c r="C87" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>940</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>941</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -8826,36 +8770,34 @@
       <c r="Y87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="E88" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="G88" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>951</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -8873,36 +8815,33 @@
       <c r="Y88" s="8"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="G89" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="H89" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>961</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="4" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -8920,33 +8859,33 @@
       <c r="Y89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="F90" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="G90" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="H90" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>967</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>970</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -8965,33 +8904,33 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="H91" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>976</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>979</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="4" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -9010,33 +8949,33 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="G92" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="H92" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="I92" s="4" t="s">
         <v>985</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>988</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="4" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -9055,32 +8994,32 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="G93" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="H93" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>997</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -9099,32 +9038,32 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="G94" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="H94" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="I94" s="4" t="s">
         <v>1003</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>1006</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="4" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -9143,32 +9082,32 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="F95" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="H95" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>1012</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>1015</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -9187,33 +9126,31 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="F96" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="G96" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="H96" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="I96" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>1024</v>
-      </c>
       <c r="J96" s="9"/>
-      <c r="K96" s="4" t="s">
-        <v>1025</v>
-      </c>
+      <c r="K96" s="4"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -9231,28 +9168,28 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="H97" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>1029</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>1033</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="4"/>
@@ -9273,28 +9210,28 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="G98" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="H98" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="I98" s="4" t="s">
         <v>1037</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>1041</v>
       </c>
       <c r="J98" s="9"/>
       <c r="L98" s="8"/>
@@ -9314,28 +9251,28 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="H99" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="I99" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>1049</v>
       </c>
       <c r="J99" s="9"/>
       <c r="L99" s="8"/>
@@ -9355,28 +9292,28 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="G100" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="H100" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="I100" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="J100" s="9"/>
       <c r="L100" s="8"/>
@@ -9396,25 +9333,22 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="H101" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="5"/>
@@ -9434,23 +9368,23 @@
       <c r="Y101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="I102" s="4"/>
       <c r="L102" s="8"/>
@@ -9469,23 +9403,20 @@
       <c r="Y102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="s">
-        <v>1071</v>
+      <c r="A103" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="I103" s="4"/>
       <c r="L103" s="8"/>
@@ -9505,23 +9436,21 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -9539,24 +9468,22 @@
       <c r="Y104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>1083</v>
+      <c r="A105" s="11" t="s">
+        <v>1076</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>1088</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -9575,23 +9502,21 @@
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>1094</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -9610,19 +9535,19 @@
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -9641,19 +9566,19 @@
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -9672,19 +9597,19 @@
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -9703,19 +9628,19 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -9733,20 +9658,20 @@
       <c r="Y110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="s">
-        <v>1115</v>
+      <c r="A111" s="4" t="s">
+        <v>1106</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="I111" s="4"/>
       <c r="L111" s="8"/>
@@ -9765,20 +9690,20 @@
       <c r="Y111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>1120</v>
+      <c r="A112" s="11" t="s">
+        <v>1111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -9797,19 +9722,19 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -9828,19 +9753,19 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -9859,19 +9784,19 @@
     </row>
     <row r="115">
       <c r="A115" s="11" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -9890,19 +9815,19 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -9921,19 +9846,19 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
@@ -9944,19 +9869,19 @@
     </row>
     <row r="118">
       <c r="A118" s="11" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
@@ -9967,19 +9892,19 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
@@ -9990,19 +9915,19 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
@@ -10013,19 +9938,19 @@
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
@@ -10036,19 +9961,19 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
@@ -10058,20 +9983,20 @@
       <c r="Y122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>1175</v>
+      <c r="A123" s="11" t="s">
+        <v>1166</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
@@ -10082,19 +10007,19 @@
     </row>
     <row r="124">
       <c r="A124" s="11" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
@@ -10105,19 +10030,19 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
@@ -10127,20 +10052,20 @@
       <c r="Y125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="s">
-        <v>1190</v>
+      <c r="A126" s="4" t="s">
+        <v>1181</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
@@ -10150,20 +10075,20 @@
       <c r="Y126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="s">
-        <v>1195</v>
+      <c r="A127" s="4" t="s">
+        <v>1186</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
@@ -10173,20 +10098,20 @@
       <c r="Y127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="s">
-        <v>1200</v>
+      <c r="A128" s="11" t="s">
+        <v>1191</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
@@ -10196,20 +10121,20 @@
       <c r="Y128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="s">
-        <v>1205</v>
+      <c r="A129" s="11" t="s">
+        <v>1196</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
@@ -10219,20 +10144,20 @@
       <c r="Y129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="s">
-        <v>1210</v>
+      <c r="A130" s="11" t="s">
+        <v>1201</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
@@ -10242,20 +10167,20 @@
       <c r="Y130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="11" t="s">
-        <v>1215</v>
+      <c r="A131" s="4" t="s">
+        <v>1206</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
@@ -10265,21 +10190,21 @@
       <c r="Y131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="11" t="s">
-        <v>1220</v>
+      <c r="A132" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="4" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
@@ -10290,20 +10215,20 @@
     </row>
     <row r="133">
       <c r="A133" s="11" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="4" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="T133" s="8"/>
       <c r="U133" s="8"/>
@@ -10314,20 +10239,20 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="4" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
@@ -10338,20 +10263,20 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="4" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
@@ -10362,20 +10287,20 @@
     </row>
     <row r="136">
       <c r="A136" s="11" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="4" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
@@ -10386,20 +10311,17 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
@@ -10410,20 +10332,18 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>1253</v>
-      </c>
+        <v>1242</v>
+      </c>
+      <c r="F138" s="4"/>
       <c r="G138" s="4" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
@@ -10434,17 +10354,17 @@
     </row>
     <row r="139">
       <c r="A139" s="11" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
@@ -10454,18 +10374,18 @@
       <c r="Y139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="s">
-        <v>1259</v>
+      <c r="A140" s="11" t="s">
+        <v>1248</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
@@ -10476,16 +10396,16 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
@@ -10495,17 +10415,17 @@
       <c r="Y141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="11" t="s">
-        <v>1267</v>
+      <c r="A142" s="4" t="s">
+        <v>1256</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
@@ -10516,16 +10436,16 @@
     </row>
     <row r="143">
       <c r="A143" s="11" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
@@ -10536,16 +10456,16 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
@@ -10556,16 +10476,16 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
@@ -10575,17 +10495,17 @@
       <c r="Y145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="11" t="s">
-        <v>1283</v>
+      <c r="A146" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
@@ -10595,17 +10515,17 @@
       <c r="Y146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="s">
-        <v>1287</v>
+      <c r="A147" s="11" t="s">
+        <v>1276</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="T147" s="8"/>
       <c r="U147" s="8"/>
@@ -10615,17 +10535,17 @@
       <c r="Y147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="s">
-        <v>1291</v>
+      <c r="A148" s="12" t="s">
+        <v>1280</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="I148" s="4"/>
       <c r="T148" s="8"/>
@@ -10637,16 +10557,16 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="I149" s="4"/>
       <c r="T149" s="8"/>
@@ -10658,16 +10578,16 @@
     </row>
     <row r="150">
       <c r="A150" s="11" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="I150" s="4"/>
       <c r="T150" s="8"/>
@@ -10678,17 +10598,17 @@
       <c r="Y150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>1303</v>
+      <c r="A151" s="4" t="s">
+        <v>1292</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
@@ -10699,16 +10619,16 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
@@ -10718,17 +10638,17 @@
       <c r="Y152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
-        <v>1311</v>
+      <c r="A153" s="4" t="s">
+        <v>1300</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
@@ -10738,17 +10658,17 @@
       <c r="Y153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="s">
-        <v>1315</v>
+      <c r="A154" s="11" t="s">
+        <v>1304</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
@@ -10759,16 +10679,16 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
@@ -10779,16 +10699,16 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
@@ -10798,17 +10718,17 @@
       <c r="Y156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="s">
-        <v>1327</v>
+      <c r="A157" s="4" t="s">
+        <v>1316</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
@@ -10819,16 +10739,16 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
@@ -10839,16 +10759,16 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
@@ -10858,17 +10778,17 @@
       <c r="Y159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="s">
-        <v>1339</v>
+      <c r="A160" s="11" t="s">
+        <v>1328</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
@@ -10878,16 +10798,14 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>1345</v>
-      </c>
+        <v>1333</v>
+      </c>
+      <c r="E161" s="4"/>
       <c r="G161" s="4" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="T161" s="8"/>
       <c r="U161" s="8"/>
@@ -10896,17 +10814,15 @@
       <c r="X161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="s">
-        <v>1347</v>
+      <c r="A162" s="11" t="s">
+        <v>1335</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>1349</v>
-      </c>
+        <v>1336</v>
+      </c>
+      <c r="E162" s="4"/>
       <c r="G162" s="4" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="T162" s="8"/>
       <c r="U162" s="8"/>
@@ -10916,13 +10832,13 @@
     </row>
     <row r="163">
       <c r="A163" s="11" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="T163" s="8"/>
       <c r="U163" s="8"/>
@@ -10931,14 +10847,14 @@
       <c r="X163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="s">
-        <v>1354</v>
+      <c r="A164" s="11" t="s">
+        <v>1341</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="T164" s="8"/>
       <c r="U164" s="8"/>
@@ -10947,14 +10863,14 @@
       <c r="X164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="11" t="s">
-        <v>1357</v>
+      <c r="A165" s="4" t="s">
+        <v>1344</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="T165" s="8"/>
       <c r="U165" s="8"/>
@@ -10964,13 +10880,13 @@
     </row>
     <row r="166">
       <c r="A166" s="11" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="T166" s="8"/>
       <c r="U166" s="8"/>
@@ -10979,14 +10895,14 @@
       <c r="X166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="11" t="s">
-        <v>1363</v>
+      <c r="A167" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="T167" s="8"/>
       <c r="U167" s="8"/>
@@ -10996,13 +10912,13 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="T168" s="8"/>
       <c r="U168" s="8"/>
@@ -11011,14 +10927,14 @@
       <c r="X168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="11" t="s">
-        <v>1369</v>
+      <c r="A169" s="4" t="s">
+        <v>1356</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="T169" s="8"/>
       <c r="U169" s="8"/>
@@ -11028,13 +10944,13 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="T170" s="8"/>
       <c r="U170" s="8"/>
@@ -11044,13 +10960,13 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="T171" s="8"/>
       <c r="U171" s="8"/>
@@ -11060,13 +10976,13 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="T172" s="8"/>
       <c r="U172" s="8"/>
@@ -11076,13 +10992,13 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="T173" s="8"/>
       <c r="U173" s="8"/>
@@ -11092,13 +11008,13 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="T174" s="8"/>
       <c r="U174" s="8"/>
@@ -11108,13 +11024,13 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="T175" s="8"/>
       <c r="U175" s="8"/>
@@ -11123,14 +11039,14 @@
       <c r="X175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="4" t="s">
-        <v>1390</v>
+      <c r="A176" s="11" t="s">
+        <v>1377</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="T176" s="8"/>
       <c r="U176" s="8"/>
@@ -11140,13 +11056,13 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="T177" s="8"/>
       <c r="U177" s="8"/>
@@ -11156,13 +11072,13 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="T178" s="8"/>
       <c r="U178" s="8"/>
@@ -11172,115 +11088,104 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="11" t="s">
-        <v>1402</v>
-      </c>
       <c r="C180" s="7" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="4" t="s">
-        <v>1405</v>
-      </c>
+      <c r="A181" s="4"/>
       <c r="C181" s="5" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="4" t="s">
-        <v>1408</v>
-      </c>
+      <c r="A182" s="4"/>
       <c r="C182" s="7" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="4" t="s">
-        <v>1411</v>
-      </c>
+      <c r="A183" s="4"/>
       <c r="C183" s="5" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
       <c r="C184" s="5" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
       <c r="C185" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>1417</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="G185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
       <c r="C186" s="7" t="s">
-        <v>1418</v>
+        <v>1400</v>
       </c>
       <c r="G186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="11"/>
       <c r="C187" s="5" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="G187" s="4"/>
     </row>
     <row r="188">
       <c r="C188" s="5" t="s">
-        <v>1420</v>
+        <v>1402</v>
       </c>
       <c r="G188" s="4"/>
     </row>
     <row r="189">
       <c r="C189" s="5" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="190">
       <c r="C190" s="7" t="s">
-        <v>1422</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="191">
       <c r="C191" s="5" t="s">
-        <v>1423</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="192">
       <c r="C192" s="7" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="193">
